--- a/prot/356379915/Переход трубопровода через р. Енисей/Cрезы КД/1076.xlsx
+++ b/prot/356379915/Переход трубопровода через р. Енисей/Cрезы КД/1076.xlsx
@@ -2526,7 +2526,7 @@
         <v>0.1</v>
       </c>
       <c r="O47" s="65" t="n">
-        <v>0.1059784033195007</v>
+        <v>0.09747840331950071</v>
       </c>
       <c r="P47" s="66" t="n"/>
       <c r="Q47" s="66" t="n"/>
@@ -2545,7 +2545,7 @@
         <v>0.15</v>
       </c>
       <c r="O48" s="65" t="n">
-        <v>0.116467604979251</v>
+        <v>0.133467604979251</v>
       </c>
       <c r="P48" s="68">
         <f>SLOPE(O47:O49,N47:N49)</f>
@@ -2573,7 +2573,7 @@
         <v>0.2</v>
       </c>
       <c r="O49" s="65" t="n">
-        <v>0.1869568066390014</v>
+        <v>0.1784568066390014</v>
       </c>
       <c r="P49" s="71" t="n"/>
       <c r="Q49" s="71" t="n"/>
@@ -2859,26 +2859,26 @@
     </row>
     <row r="66">
       <c r="F66" s="60" t="n">
-        <v>0.001833563828983539</v>
+        <v>0.001688185101740696</v>
       </c>
       <c r="G66" s="100" t="n">
         <v>0.02837379201712209</v>
       </c>
       <c r="H66" s="100" t="n"/>
       <c r="J66" s="60" t="n">
-        <v>0.001833563828983539</v>
+        <v>0.001688185101740696</v>
       </c>
       <c r="K66" s="100" t="n">
         <v>0.02837379201712209</v>
       </c>
       <c r="L66" s="57" t="n">
-        <v>0.002007603564293898</v>
+        <v>0.002315612202209156</v>
       </c>
       <c r="M66" s="60" t="n">
         <v>0.02837379201712209</v>
       </c>
       <c r="N66" s="100" t="n">
-        <v>0.003206201779121886</v>
+        <v>0.003064435449566037</v>
       </c>
       <c r="O66" s="57" t="n">
         <v>0.02837379201712209</v>
@@ -2886,26 +2886,26 @@
     </row>
     <row r="67">
       <c r="F67" s="60" t="n">
-        <v>0.003691690030082058</v>
+        <v>0.003354885772734502</v>
       </c>
       <c r="G67" s="100" t="n">
         <v>0.05674758403424419</v>
       </c>
       <c r="H67" s="100" t="n"/>
       <c r="J67" s="60" t="n">
-        <v>0.003691690030082058</v>
+        <v>0.003354885772734502</v>
       </c>
       <c r="K67" s="100" t="n">
         <v>0.05674758403424419</v>
       </c>
       <c r="L67" s="57" t="n">
-        <v>0.004049838512566029</v>
+        <v>0.004638663008819328</v>
       </c>
       <c r="M67" s="60" t="n">
         <v>0.05674758403424419</v>
       </c>
       <c r="N67" s="100" t="n">
-        <v>0.006412497162190007</v>
+        <v>0.006167766846967983</v>
       </c>
       <c r="O67" s="57" t="n">
         <v>0.05674758403424419</v>
@@ -2913,26 +2913,26 @@
     </row>
     <row r="68">
       <c r="F68" s="60" t="n">
-        <v>0.005447078159833749</v>
+        <v>0.005095490096006189</v>
       </c>
       <c r="G68" s="100" t="n">
         <v>0.08512137605136628</v>
       </c>
       <c r="H68" s="100" t="n"/>
       <c r="J68" s="60" t="n">
-        <v>0.005447078159833749</v>
+        <v>0.005095490096006189</v>
       </c>
       <c r="K68" s="100" t="n">
         <v>0.08512137605136628</v>
       </c>
       <c r="L68" s="57" t="n">
-        <v>0.006032634880647502</v>
+        <v>0.006973990029601898</v>
       </c>
       <c r="M68" s="60" t="n">
         <v>0.08512137605136628</v>
       </c>
       <c r="N68" s="100" t="n">
-        <v>0.009586942576346154</v>
+        <v>0.00930352804610333</v>
       </c>
       <c r="O68" s="57" t="n">
         <v>0.08512137605136628</v>
@@ -2940,26 +2940,26 @@
     </row>
     <row r="69">
       <c r="F69" s="60" t="n">
-        <v>0.007335308116692541</v>
+        <v>0.006701219095683815</v>
       </c>
       <c r="G69" s="100" t="n">
         <v>0.1134951680684884</v>
       </c>
       <c r="H69" s="100" t="n"/>
       <c r="J69" s="60" t="n">
-        <v>0.007335308116692541</v>
+        <v>0.006701219095683815</v>
       </c>
       <c r="K69" s="100" t="n">
         <v>0.1134951680684884</v>
       </c>
       <c r="L69" s="57" t="n">
-        <v>0.00805569119932161</v>
+        <v>0.009138465146458684</v>
       </c>
       <c r="M69" s="60" t="n">
         <v>0.1134951680684884</v>
       </c>
       <c r="N69" s="100" t="n">
-        <v>0.01286150743005647</v>
+        <v>0.01225704658557288</v>
       </c>
       <c r="O69" s="57" t="n">
         <v>0.1134951680684884</v>
@@ -2967,26 +2967,26 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="F70" s="60" t="n">
-        <v>0.009100677792917419</v>
+        <v>0.008395993674188038</v>
       </c>
       <c r="G70" s="100" t="n">
         <v>0.1418689600856105</v>
       </c>
       <c r="H70" s="100" t="n"/>
       <c r="J70" s="60" t="n">
-        <v>0.009100677792917419</v>
+        <v>0.008395993674188038</v>
       </c>
       <c r="K70" s="100" t="n">
         <v>0.1418689600856105</v>
       </c>
       <c r="L70" s="57" t="n">
-        <v>0.01010091802988101</v>
+        <v>0.01158910294031187</v>
       </c>
       <c r="M70" s="60" t="n">
         <v>0.1418689600856105</v>
       </c>
       <c r="N70" s="100" t="n">
-        <v>0.01622877464927596</v>
+        <v>0.01538313214161729</v>
       </c>
       <c r="O70" s="57" t="n">
         <v>0.1418689600856105</v>
@@ -2994,26 +2994,26 @@
     </row>
     <row r="71">
       <c r="F71" s="60" t="n">
-        <v>0.01102633032874719</v>
+        <v>0.01006019767558706</v>
       </c>
       <c r="G71" s="100" t="n">
         <v>0.1702427521027326</v>
       </c>
       <c r="H71" s="100" t="n"/>
       <c r="J71" s="60" t="n">
-        <v>0.01102633032874719</v>
+        <v>0.01006019767558706</v>
       </c>
       <c r="K71" s="100" t="n">
         <v>0.1702427521027326</v>
       </c>
       <c r="L71" s="57" t="n">
-        <v>0.01195604320124588</v>
+        <v>0.01378688002434008</v>
       </c>
       <c r="M71" s="60" t="n">
         <v>0.1702427521027326</v>
       </c>
       <c r="N71" s="100" t="n">
-        <v>0.01938769116686587</v>
+        <v>0.01849329262736252</v>
       </c>
       <c r="O71" s="57" t="n">
         <v>0.1702427521027326</v>
@@ -3021,26 +3021,26 @@
     </row>
     <row r="72">
       <c r="F72" s="60" t="n">
-        <v>0.01271443227963229</v>
+        <v>0.01179477642070786</v>
       </c>
       <c r="G72" s="100" t="n">
         <v>0.1986165441198547</v>
       </c>
       <c r="H72" s="100" t="n"/>
       <c r="J72" s="60" t="n">
-        <v>0.01271443227963229</v>
+        <v>0.01179477642070786</v>
       </c>
       <c r="K72" s="100" t="n">
         <v>0.1986165441198547</v>
       </c>
       <c r="L72" s="57" t="n">
-        <v>0.01394329210101227</v>
+        <v>0.01610105334507128</v>
       </c>
       <c r="M72" s="60" t="n">
         <v>0.1986165441198547</v>
       </c>
       <c r="N72" s="100" t="n">
-        <v>0.02275257044652346</v>
+        <v>0.02159091545236469</v>
       </c>
       <c r="O72" s="57" t="n">
         <v>0.1986165441198547</v>
@@ -3051,26 +3051,26 @@
       <c r="B73" s="59" t="n"/>
       <c r="D73" s="101" t="n"/>
       <c r="F73" s="60" t="n">
-        <v>0.01470366622722804</v>
+        <v>0.01333322990525204</v>
       </c>
       <c r="G73" s="100" t="n">
         <v>0.2269903361369768</v>
       </c>
       <c r="H73" s="100" t="n"/>
       <c r="J73" s="60" t="n">
-        <v>0.01470366622722804</v>
+        <v>0.01333322990525204</v>
       </c>
       <c r="K73" s="100" t="n">
         <v>0.2269903361369768</v>
       </c>
       <c r="L73" s="57" t="n">
-        <v>0.01612036385017372</v>
+        <v>0.01845491679727803</v>
       </c>
       <c r="M73" s="60" t="n">
         <v>0.2269903361369768</v>
       </c>
       <c r="N73" s="100" t="n">
-        <v>0.02600589861371583</v>
+        <v>0.02453770135635541</v>
       </c>
       <c r="O73" s="57" t="n">
         <v>0.2269903361369768</v>
@@ -3078,26 +3078,26 @@
     </row>
     <row r="74">
       <c r="F74" s="60" t="n">
-        <v>0.0163871151592637</v>
+        <v>0.01506067230046115</v>
       </c>
       <c r="G74" s="100" t="n">
         <v>0.2553641281540989</v>
       </c>
       <c r="H74" s="100" t="n"/>
       <c r="J74" s="60" t="n">
-        <v>0.0163871151592637</v>
+        <v>0.01506067230046115</v>
       </c>
       <c r="K74" s="100" t="n">
         <v>0.2553641281540989</v>
       </c>
       <c r="L74" s="57" t="n">
-        <v>0.01826955664786692</v>
+        <v>0.02072476486602553</v>
       </c>
       <c r="M74" s="60" t="n">
         <v>0.2553641281540989</v>
       </c>
       <c r="N74" s="100" t="n">
-        <v>0.02905086360642824</v>
+        <v>0.02758313946182256</v>
       </c>
       <c r="O74" s="57" t="n">
         <v>0.2553641281540989</v>
@@ -3105,26 +3105,26 @@
     </row>
     <row r="75">
       <c r="F75" s="60" t="n">
-        <v>0.01845145923006428</v>
+        <v>0.01698333719248911</v>
       </c>
       <c r="G75" s="100" t="n">
         <v>0.283737920171221</v>
       </c>
       <c r="H75" s="100" t="n"/>
       <c r="J75" s="60" t="n">
-        <v>0.01845145923006428</v>
+        <v>0.01698333719248911</v>
       </c>
       <c r="K75" s="100" t="n">
         <v>0.283737920171221</v>
       </c>
       <c r="L75" s="57" t="n">
-        <v>0.02015506346867394</v>
+        <v>0.02285737824177028</v>
       </c>
       <c r="M75" s="60" t="n">
         <v>0.283737920171221</v>
       </c>
       <c r="N75" s="100" t="n">
-        <v>0.03211140681576199</v>
+        <v>0.03056213325922984</v>
       </c>
       <c r="O75" s="57" t="n">
         <v>0.283737920171221</v>
@@ -3134,26 +3134,26 @@
       <c r="A76" s="101" t="n"/>
       <c r="C76" s="102" t="n"/>
       <c r="F76" s="60" t="n">
-        <v>0.02032104752209334</v>
+        <v>0.01853758135167693</v>
       </c>
       <c r="G76" s="100" t="n">
         <v>0.312111712188343</v>
       </c>
       <c r="H76" s="100" t="n"/>
       <c r="J76" s="60" t="n">
-        <v>0.02032104752209334</v>
+        <v>0.01853758135167693</v>
       </c>
       <c r="K76" s="100" t="n">
         <v>0.312111712188343</v>
       </c>
       <c r="L76" s="57" t="n">
-        <v>0.02229472835061621</v>
+        <v>0.02551853187286759</v>
       </c>
       <c r="M76" s="60" t="n">
         <v>0.312111712188343</v>
       </c>
       <c r="N76" s="100" t="n">
-        <v>0.03551119699945991</v>
+        <v>0.03380180600758281</v>
       </c>
       <c r="O76" s="57" t="n">
         <v>0.312111712188343</v>
@@ -3161,25 +3161,25 @@
     </row>
     <row r="77" ht="15" customHeight="1">
       <c r="F77" t="n">
-        <v>0.02179995508264192</v>
+        <v>0.0200555274017208</v>
       </c>
       <c r="G77" t="n">
         <v>0.3404855042054651</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02179995508264192</v>
+        <v>0.0200555274017208</v>
       </c>
       <c r="K77" t="n">
         <v>0.3404855042054651</v>
       </c>
       <c r="L77" t="n">
-        <v>0.0240758113047322</v>
+        <v>0.02743518339641172</v>
       </c>
       <c r="M77" t="n">
         <v>0.3404855042054651</v>
       </c>
       <c r="N77" t="n">
-        <v>0.03855417497856729</v>
+        <v>0.03680130760128798</v>
       </c>
       <c r="O77" t="n">
         <v>0.3404855042054651</v>
@@ -3188,25 +3188,25 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" s="101" t="n"/>
       <c r="F78" t="n">
-        <v>0.0237548926803776</v>
+        <v>0.0219939973961849</v>
       </c>
       <c r="G78" t="n">
         <v>0.3688592962225872</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0237548926803776</v>
+        <v>0.0219939973961849</v>
       </c>
       <c r="K78" t="n">
         <v>0.3688592962225872</v>
       </c>
       <c r="L78" t="n">
-        <v>0.02613739249546412</v>
+        <v>0.03014716520316231</v>
       </c>
       <c r="M78" t="n">
         <v>0.3688592962225872</v>
       </c>
       <c r="N78" t="n">
-        <v>0.04215778795200719</v>
+        <v>0.04017701036183038</v>
       </c>
       <c r="O78" t="n">
         <v>0.3688592962225872</v>
@@ -3216,25 +3216,25 @@
       <c r="A79" s="101" t="n"/>
       <c r="D79" s="57" t="n"/>
       <c r="F79" t="n">
-        <v>0.02570293581750081</v>
+        <v>0.02371210120836803</v>
       </c>
       <c r="G79" t="n">
         <v>0.3972330882397093</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02570293581750081</v>
+        <v>0.02371210120836803</v>
       </c>
       <c r="K79" t="n">
         <v>0.3972330882397093</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0283566489419045</v>
+        <v>0.03237311562931465</v>
       </c>
       <c r="M79" t="n">
         <v>0.3972330882397093</v>
       </c>
       <c r="N79" t="n">
-        <v>0.04510316926182534</v>
+        <v>0.04333286967758339</v>
       </c>
       <c r="O79" t="n">
         <v>0.3972330882397093</v>
@@ -3242,25 +3242,25 @@
     </row>
     <row r="80" ht="15" customHeight="1">
       <c r="F80" t="n">
-        <v>0.02727208292101678</v>
+        <v>0.0252210961558415</v>
       </c>
       <c r="G80" t="n">
         <v>0.4256068802568314</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02727208292101678</v>
+        <v>0.0252210961558415</v>
       </c>
       <c r="K80" t="n">
         <v>0.4256068802568314</v>
       </c>
       <c r="L80" t="n">
-        <v>0.02988684875509543</v>
+        <v>0.03479210308423163</v>
       </c>
       <c r="M80" t="n">
         <v>0.4256068802568314</v>
       </c>
       <c r="N80" t="n">
-        <v>0.04822700472018167</v>
+        <v>0.04643659021344682</v>
       </c>
       <c r="O80" t="n">
         <v>0.4256068802568314</v>
@@ -3268,25 +3268,25 @@
     </row>
     <row r="81" ht="15" customHeight="1">
       <c r="F81" t="n">
-        <v>0.02950370088792494</v>
+        <v>0.02673264295246601</v>
       </c>
       <c r="G81" t="n">
         <v>0.4539806722739535</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02950370088792494</v>
+        <v>0.02673264295246601</v>
       </c>
       <c r="K81" t="n">
         <v>0.4539806722739535</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03225619503898659</v>
+        <v>0.03670951529438755</v>
       </c>
       <c r="M81" t="n">
         <v>0.4539806722739535</v>
       </c>
       <c r="N81" t="n">
-        <v>0.05179917608437347</v>
+        <v>0.0493650925423532</v>
       </c>
       <c r="O81" t="n">
         <v>0.4539806722739535</v>
@@ -3296,25 +3296,25 @@
       <c r="A82" s="101" t="n"/>
       <c r="B82" s="101" t="n"/>
       <c r="F82" t="n">
-        <v>0.03097256647573202</v>
+        <v>0.02894521403124975</v>
       </c>
       <c r="G82" t="n">
         <v>0.4823544642910756</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03097256647573202</v>
+        <v>0.02894521403124975</v>
       </c>
       <c r="K82" t="n">
         <v>0.4823544642910756</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03464908327021517</v>
+        <v>0.03932894560200373</v>
       </c>
       <c r="M82" t="n">
         <v>0.4823544642910756</v>
       </c>
       <c r="N82" t="n">
-        <v>0.05461675309840162</v>
+        <v>0.05210730162773279</v>
       </c>
       <c r="O82" t="n">
         <v>0.4823544642910756</v>
@@ -3322,25 +3322,25 @@
     </row>
     <row r="83" ht="15" customHeight="1">
       <c r="F83" t="n">
-        <v>0.03332069167157289</v>
+        <v>0.03070004249309173</v>
       </c>
       <c r="G83" t="n">
         <v>0.5107282563081977</v>
       </c>
       <c r="J83" t="n">
-        <v>0.03332069167157289</v>
+        <v>0.03070004249309173</v>
       </c>
       <c r="K83" t="n">
         <v>0.5107282563081977</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03652387846055025</v>
+        <v>0.04202620321516443</v>
       </c>
       <c r="M83" t="n">
         <v>0.5107282563081977</v>
       </c>
       <c r="N83" t="n">
-        <v>0.05864661758999674</v>
+        <v>0.05541642457784784</v>
       </c>
       <c r="O83" t="n">
         <v>0.5107282563081977</v>
@@ -3348,25 +3348,25 @@
     </row>
     <row r="84" ht="15" customHeight="1">
       <c r="F84" t="n">
-        <v>0.03529954066502127</v>
+        <v>0.03224250723546072</v>
       </c>
       <c r="G84" t="n">
         <v>0.5391020483253198</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03529954066502127</v>
+        <v>0.03224250723546072</v>
       </c>
       <c r="K84" t="n">
         <v>0.5391020483253198</v>
       </c>
       <c r="L84" t="n">
-        <v>0.03871621588053556</v>
+        <v>0.0443055216512983</v>
       </c>
       <c r="M84" t="n">
         <v>0.5391020483253198</v>
       </c>
       <c r="N84" t="n">
-        <v>0.0614243199874876</v>
+        <v>0.05939357075730704</v>
       </c>
       <c r="O84" t="n">
         <v>0.5391020483253198</v>
@@ -3377,25 +3377,25 @@
       <c r="B85" s="57" t="n"/>
       <c r="D85" s="101" t="n"/>
       <c r="F85" t="n">
-        <v>0.03707071774169365</v>
+        <v>0.03393411894296915</v>
       </c>
       <c r="G85" t="n">
         <v>0.5674758403424419</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03707071774169365</v>
+        <v>0.03393411894296915</v>
       </c>
       <c r="K85" t="n">
         <v>0.5674758403424419</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04029254506494061</v>
+        <v>0.04649993112516524</v>
       </c>
       <c r="M85" t="n">
         <v>0.5674758403424419</v>
       </c>
       <c r="N85" t="n">
-        <v>0.06463294744894595</v>
+        <v>0.06269118673400265</v>
       </c>
       <c r="O85" t="n">
         <v>0.5674758403424419</v>
@@ -3406,25 +3406,25 @@
       <c r="B86" s="57" t="n"/>
       <c r="D86" s="101" t="n"/>
       <c r="F86" t="n">
-        <v>0.03859291383561528</v>
+        <v>0.03601648637153954</v>
       </c>
       <c r="G86" t="n">
         <v>0.595849632359564</v>
       </c>
       <c r="J86" t="n">
-        <v>0.03859291383561528</v>
+        <v>0.03601648637153954</v>
       </c>
       <c r="K86" t="n">
         <v>0.595849632359564</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04238271225241865</v>
+        <v>0.04906393665082817</v>
       </c>
       <c r="M86" t="n">
         <v>0.595849632359564</v>
       </c>
       <c r="N86" t="n">
-        <v>0.06913202939626056</v>
+        <v>0.0655958351439352</v>
       </c>
       <c r="O86" t="n">
         <v>0.595849632359564</v>
@@ -3432,25 +3432,25 @@
     </row>
     <row r="87" ht="15" customHeight="1">
       <c r="F87" t="n">
-        <v>0.04089031494325927</v>
+        <v>0.0374568410067766</v>
       </c>
       <c r="G87" t="n">
         <v>0.6242234243766861</v>
       </c>
       <c r="J87" t="n">
-        <v>0.04089031494325927</v>
+        <v>0.0374568410067766</v>
       </c>
       <c r="K87" t="n">
         <v>0.6242234243766861</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04462804208219777</v>
+        <v>0.05145553990027574</v>
       </c>
       <c r="M87" t="n">
         <v>0.6242234243766861</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0717892358068189</v>
+        <v>0.0690268737725756</v>
       </c>
       <c r="O87" t="n">
         <v>0.6242234243766861</v>
@@ -3461,25 +3461,25 @@
       <c r="C88" s="59" t="n"/>
       <c r="D88" s="59" t="n"/>
       <c r="F88" t="n">
-        <v>0.04285336541794372</v>
+        <v>0.03920439472331669</v>
       </c>
       <c r="G88" t="n">
         <v>0.6525972163938082</v>
       </c>
       <c r="J88" t="n">
-        <v>0.04285336541794372</v>
+        <v>0.03920439472331669</v>
       </c>
       <c r="K88" t="n">
         <v>0.6525972163938082</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04673842056580964</v>
+        <v>0.05336707943070401</v>
       </c>
       <c r="M88" t="n">
         <v>0.6525972163938082</v>
       </c>
       <c r="N88" t="n">
-        <v>0.07460422664536205</v>
+        <v>0.07197389446167357</v>
       </c>
       <c r="O88" t="n">
         <v>0.6525972163938082</v>
@@ -3489,25 +3489,25 @@
       <c r="A89" s="57" t="n"/>
       <c r="B89" s="57" t="n"/>
       <c r="F89" t="n">
-        <v>0.04439243862204248</v>
+        <v>0.04104066514476769</v>
       </c>
       <c r="G89" t="n">
         <v>0.6809710084109303</v>
       </c>
       <c r="J89" t="n">
-        <v>0.04439243862204248</v>
+        <v>0.04104066514476769</v>
       </c>
       <c r="K89" t="n">
         <v>0.6809710084109303</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04849278385153925</v>
+        <v>0.05599122267472892</v>
       </c>
       <c r="M89" t="n">
         <v>0.6809710084109303</v>
       </c>
       <c r="N89" t="n">
-        <v>0.07821078750314535</v>
+        <v>0.07537420710155567</v>
       </c>
       <c r="O89" t="n">
         <v>0.6809710084109303</v>
@@ -3515,25 +3515,25 @@
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.04618224562802457</v>
+        <v>0.04251650850605043</v>
       </c>
       <c r="G90" t="n">
         <v>0.7093448004280524</v>
       </c>
       <c r="J90" t="n">
-        <v>0.04618224562802457</v>
+        <v>0.04251650850605043</v>
       </c>
       <c r="K90" t="n">
         <v>0.7093448004280524</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05072769871163424</v>
+        <v>0.05877903095813513</v>
       </c>
       <c r="M90" t="n">
         <v>0.7093448004280524</v>
       </c>
       <c r="N90" t="n">
-        <v>0.08218867935673449</v>
+        <v>0.07744667228638974</v>
       </c>
       <c r="O90" t="n">
         <v>0.7093448004280524</v>
@@ -3541,25 +3541,25 @@
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.04780941637345089</v>
+        <v>0.04413825439588007</v>
       </c>
       <c r="G91" t="n">
         <v>0.7377185924451745</v>
       </c>
       <c r="J91" t="n">
-        <v>0.04780941637345089</v>
+        <v>0.04413825439588007</v>
       </c>
       <c r="K91" t="n">
         <v>0.7377185924451745</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05231974408078669</v>
+        <v>0.06037371281928306</v>
       </c>
       <c r="M91" t="n">
         <v>0.7377185924451745</v>
       </c>
       <c r="N91" t="n">
-        <v>0.08485737754314365</v>
+        <v>0.08061127340038862</v>
       </c>
       <c r="O91" t="n">
         <v>0.7377185924451745</v>
@@ -3567,25 +3567,25 @@
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.05014812913832297</v>
+        <v>0.0460940099023102</v>
       </c>
       <c r="G92" t="n">
         <v>0.7660923844622965</v>
       </c>
       <c r="J92" t="n">
-        <v>0.05014812913832297</v>
+        <v>0.0460940099023102</v>
       </c>
       <c r="K92" t="n">
         <v>0.7660923844622965</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05486038287463561</v>
+        <v>0.06262397341467874</v>
       </c>
       <c r="M92" t="n">
         <v>0.7660923844622965</v>
       </c>
       <c r="N92" t="n">
-        <v>0.08809836010116642</v>
+        <v>0.0833567741230188</v>
       </c>
       <c r="O92" t="n">
         <v>0.7660923844622965</v>
@@ -3593,25 +3593,25 @@
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.05092724283925229</v>
+        <v>0.04725770141059166</v>
       </c>
       <c r="G93" t="n">
         <v>0.7944661764794186</v>
       </c>
       <c r="J93" t="n">
-        <v>0.05092724283925229</v>
+        <v>0.04725770141059166</v>
       </c>
       <c r="K93" t="n">
         <v>0.7944661764794186</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05640170749609619</v>
+        <v>0.06425970958978906</v>
       </c>
       <c r="M93" t="n">
         <v>0.7944661764794186</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09129738401465767</v>
+        <v>0.08600669637654716</v>
       </c>
       <c r="O93" t="n">
         <v>0.7944661764794186</v>
@@ -3619,25 +3619,25 @@
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.05302311195488607</v>
+        <v>0.04847395994273174</v>
       </c>
       <c r="G94" t="n">
         <v>0.8228399684965407</v>
       </c>
       <c r="J94" t="n">
-        <v>0.05302311195488607</v>
+        <v>0.04847395994273174</v>
       </c>
       <c r="K94" t="n">
         <v>0.8228399684965407</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05842783657612213</v>
+        <v>0.06599802599132394</v>
       </c>
       <c r="M94" t="n">
         <v>0.8228399684965407</v>
       </c>
       <c r="N94" t="n">
-        <v>0.09359414618577175</v>
+        <v>0.0888495751661095</v>
       </c>
       <c r="O94" t="n">
         <v>0.8228399684965407</v>
@@ -3645,25 +3645,25 @@
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.05386760278872638</v>
+        <v>0.05027254810807714</v>
       </c>
       <c r="G95" t="n">
         <v>0.8512137605136628</v>
       </c>
       <c r="J95" t="n">
-        <v>0.05386760278872638</v>
+        <v>0.05027254810807714</v>
       </c>
       <c r="K95" t="n">
         <v>0.8512137605136628</v>
       </c>
       <c r="L95" t="n">
-        <v>0.05986262317818503</v>
+        <v>0.06847022579021723</v>
       </c>
       <c r="M95" t="n">
         <v>0.8512137605136628</v>
       </c>
       <c r="N95" t="n">
-        <v>0.09547895407398956</v>
+        <v>0.09190732784263819</v>
       </c>
       <c r="O95" t="n">
         <v>0.8512137605136628</v>
@@ -3671,25 +3671,25 @@
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.05582711925901286</v>
+        <v>0.05190015514556674</v>
       </c>
       <c r="G96" t="n">
         <v>0.8795875525307849</v>
       </c>
       <c r="J96" t="n">
-        <v>0.05582711925901286</v>
+        <v>0.05190015514556674</v>
       </c>
       <c r="K96" t="n">
         <v>0.8795875525307849</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06113124634015832</v>
+        <v>0.07041352744887557</v>
       </c>
       <c r="M96" t="n">
         <v>0.8795875525307849</v>
       </c>
       <c r="N96" t="n">
-        <v>0.09798140210944736</v>
+        <v>0.09477972508934028</v>
       </c>
       <c r="O96" t="n">
         <v>0.8795875525307849</v>
@@ -3697,25 +3697,25 @@
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.05794862350642636</v>
+        <v>0.05301519933763218</v>
       </c>
       <c r="G97" t="n">
         <v>0.907961344547907</v>
       </c>
       <c r="J97" t="n">
-        <v>0.05794862350642636</v>
+        <v>0.05301519933763218</v>
       </c>
       <c r="K97" t="n">
         <v>0.907961344547907</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06348183065823361</v>
+        <v>0.0721901458023094</v>
       </c>
       <c r="M97" t="n">
         <v>0.907961344547907</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1013649554266569</v>
+        <v>0.09695008006879423</v>
       </c>
       <c r="O97" t="n">
         <v>0.907961344547907</v>
@@ -3723,25 +3723,25 @@
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.05917136949800415</v>
+        <v>0.05459939471955131</v>
       </c>
       <c r="G98" t="n">
         <v>0.9363351365650291</v>
       </c>
       <c r="J98" t="n">
-        <v>0.05917136949800415</v>
+        <v>0.05459939471955131</v>
       </c>
       <c r="K98" t="n">
         <v>0.9363351365650291</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06460588607397801</v>
+        <v>0.07479478588867353</v>
       </c>
       <c r="M98" t="n">
         <v>0.9363351365650291</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1048845781243007</v>
+        <v>0.09859411335049488</v>
       </c>
       <c r="O98" t="n">
         <v>0.9363351365650291</v>
@@ -3749,25 +3749,25 @@
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.06030435900439404</v>
+        <v>0.0560643128102115</v>
       </c>
       <c r="G99" t="n">
         <v>0.9647089285821512</v>
       </c>
       <c r="J99" t="n">
-        <v>0.06030435900439404</v>
+        <v>0.0560643128102115</v>
       </c>
       <c r="K99" t="n">
         <v>0.9647089285821512</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06596649674896263</v>
+        <v>0.07599221211172554</v>
       </c>
       <c r="M99" t="n">
         <v>0.9647089285821512</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1073670328058808</v>
+        <v>0.1026999692471947</v>
       </c>
       <c r="O99" t="n">
         <v>0.9647089285821512</v>
@@ -3775,25 +3775,25 @@
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.0621853752240013</v>
+        <v>0.05676317960984985</v>
       </c>
       <c r="G100" t="n">
         <v>0.9930827205992733</v>
       </c>
       <c r="J100" t="n">
-        <v>0.0621853752240013</v>
+        <v>0.05676317960984985</v>
       </c>
       <c r="K100" t="n">
         <v>0.9930827205992733</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06868179889994655</v>
+        <v>0.07804127614345267</v>
       </c>
       <c r="M100" t="n">
         <v>0.9930827205992733</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1100414059375384</v>
+        <v>0.105404793331194</v>
       </c>
       <c r="O100" t="n">
         <v>0.9930827205992733</v>
@@ -3801,25 +3801,25 @@
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.06433432947822544</v>
+        <v>0.0584418918679898</v>
       </c>
       <c r="G101" t="n">
         <v>1.021456512616395</v>
       </c>
       <c r="J101" t="n">
-        <v>0.06433432947822544</v>
+        <v>0.0584418918679898</v>
       </c>
       <c r="K101" t="n">
         <v>1.021456512616395</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06939952190620122</v>
+        <v>0.08062050869863807</v>
       </c>
       <c r="M101" t="n">
         <v>1.021456512616395</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1128292694175258</v>
+        <v>0.1062726429484922</v>
       </c>
       <c r="O101" t="n">
         <v>1.021456512616395</v>
@@ -3827,25 +3827,25 @@
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.06479692688513143</v>
+        <v>0.06028990990151895</v>
       </c>
       <c r="G102" t="n">
         <v>1.049830304633518</v>
       </c>
       <c r="J102" t="n">
-        <v>0.06479692688513143</v>
+        <v>0.06028990990151895</v>
       </c>
       <c r="K102" t="n">
         <v>1.049830304633518</v>
       </c>
       <c r="L102" t="n">
-        <v>0.07196294660238477</v>
+        <v>0.08291053369474113</v>
       </c>
       <c r="M102" t="n">
         <v>1.049830304633518</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1151485255985573</v>
+        <v>0.1100121551163747</v>
       </c>
       <c r="O102" t="n">
         <v>1.049830304633518</v>
@@ -3853,25 +3853,25 @@
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.06638850167983645</v>
+        <v>0.06141372883545226</v>
       </c>
       <c r="G103" t="n">
         <v>1.07820409665064</v>
       </c>
       <c r="J103" t="n">
-        <v>0.06638850167983645</v>
+        <v>0.06141372883545226</v>
       </c>
       <c r="K103" t="n">
         <v>1.07820409665064</v>
       </c>
       <c r="L103" t="n">
-        <v>0.07335537628660271</v>
+        <v>0.08470978870276356</v>
       </c>
       <c r="M103" t="n">
         <v>1.07820409665064</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1179521022976981</v>
+        <v>0.1114318172149102</v>
       </c>
       <c r="O103" t="n">
         <v>1.07820409665064</v>
@@ -3879,25 +3879,25 @@
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.06773382758069525</v>
+        <v>0.06229495862014157</v>
       </c>
       <c r="G104" t="n">
         <v>1.106577888667762</v>
       </c>
       <c r="J104" t="n">
-        <v>0.06773382758069525</v>
+        <v>0.06229495862014157</v>
       </c>
       <c r="K104" t="n">
         <v>1.106577888667762</v>
       </c>
       <c r="L104" t="n">
-        <v>0.07512014128593363</v>
+        <v>0.08604196247988384</v>
       </c>
       <c r="M104" t="n">
         <v>1.106577888667762</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1206088639763956</v>
+        <v>0.113746629285968</v>
       </c>
       <c r="O104" t="n">
         <v>1.106577888667762</v>
@@ -3905,25 +3905,25 @@
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.06929601447636928</v>
+        <v>0.06378300319659329</v>
       </c>
       <c r="G105" t="n">
         <v>1.134951680684884</v>
       </c>
       <c r="J105" t="n">
-        <v>0.06929601447636928</v>
+        <v>0.06378300319659329</v>
       </c>
       <c r="K105" t="n">
         <v>1.134951680684884</v>
       </c>
       <c r="L105" t="n">
-        <v>0.07615458044162825</v>
+        <v>0.08723524515962941</v>
       </c>
       <c r="M105" t="n">
         <v>1.134951680684884</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1218641275728662</v>
+        <v>0.1176263557038741</v>
       </c>
       <c r="O105" t="n">
         <v>1.134951680684884</v>
@@ -3931,25 +3931,25 @@
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.0713437328461079</v>
+        <v>0.06505229339334928</v>
       </c>
       <c r="G106" t="n">
         <v>1.163325472702006</v>
       </c>
       <c r="J106" t="n">
-        <v>0.0713437328461079</v>
+        <v>0.06505229339334928</v>
       </c>
       <c r="K106" t="n">
         <v>1.163325472702006</v>
       </c>
       <c r="L106" t="n">
-        <v>0.07778730172853029</v>
+        <v>0.09044057171642793</v>
       </c>
       <c r="M106" t="n">
         <v>1.163325472702006</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1254937164934509</v>
+        <v>0.1192729982646312</v>
       </c>
       <c r="O106" t="n">
         <v>1.163325472702006</v>
@@ -3957,25 +3957,25 @@
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.07245306022481965</v>
+        <v>0.06677544519990791</v>
       </c>
       <c r="G107" t="n">
         <v>1.191699264719128</v>
       </c>
       <c r="J107" t="n">
-        <v>0.07245306022481965</v>
+        <v>0.06677544519990791</v>
       </c>
       <c r="K107" t="n">
         <v>1.191699264719128</v>
       </c>
       <c r="L107" t="n">
-        <v>0.07989522308516533</v>
+        <v>0.0916118262889946</v>
       </c>
       <c r="M107" t="n">
         <v>1.191699264719128</v>
       </c>
       <c r="N107" t="n">
-        <v>0.126969808321968</v>
+        <v>0.121478149736331</v>
       </c>
       <c r="O107" t="n">
         <v>1.191699264719128</v>
@@ -3983,25 +3983,25 @@
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.07366122347831955</v>
+        <v>0.0673927255195878</v>
       </c>
       <c r="G108" t="n">
         <v>1.22007305673625</v>
       </c>
       <c r="J108" t="n">
-        <v>0.07366122347831955</v>
+        <v>0.0673927255195878</v>
       </c>
       <c r="K108" t="n">
         <v>1.22007305673625</v>
       </c>
       <c r="L108" t="n">
-        <v>0.08130129132974614</v>
+        <v>0.09373639830623472</v>
       </c>
       <c r="M108" t="n">
         <v>1.22007305673625</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1295676577942211</v>
+        <v>0.1240877860853681</v>
       </c>
       <c r="O108" t="n">
         <v>1.22007305673625</v>
@@ -4009,25 +4009,25 @@
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.07596007906757755</v>
+        <v>0.06860014817339707</v>
       </c>
       <c r="G109" t="n">
         <v>1.248446848753372</v>
       </c>
       <c r="J109" t="n">
-        <v>0.07596007906757755</v>
+        <v>0.06860014817339707</v>
       </c>
       <c r="K109" t="n">
         <v>1.248446848753372</v>
       </c>
       <c r="L109" t="n">
-        <v>0.08193891718710564</v>
+        <v>0.09471460062933247</v>
       </c>
       <c r="M109" t="n">
         <v>1.248446848753372</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1334832963524831</v>
+        <v>0.1274778749127578</v>
       </c>
       <c r="O109" t="n">
         <v>1.248446848753372</v>
@@ -4035,25 +4035,25 @@
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.07589708909141979</v>
+        <v>0.06978861771818348</v>
       </c>
       <c r="G110" t="n">
         <v>1.276820640770494</v>
       </c>
       <c r="J110" t="n">
-        <v>0.07589708909141979</v>
+        <v>0.06978861771818348</v>
       </c>
       <c r="K110" t="n">
         <v>1.276820640770494</v>
       </c>
       <c r="L110" t="n">
-        <v>0.08346794203020054</v>
+        <v>0.09594070239848573</v>
       </c>
       <c r="M110" t="n">
         <v>1.276820640770494</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1361882388602205</v>
+        <v>0.1298674054613957</v>
       </c>
       <c r="O110" t="n">
         <v>1.276820640770494</v>
@@ -4061,25 +4061,25 @@
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.07835901664376207</v>
+        <v>0.07196674220020839</v>
       </c>
       <c r="G111" t="n">
         <v>1.305194432787616</v>
       </c>
       <c r="J111" t="n">
-        <v>0.07835901664376207</v>
+        <v>0.07196674220020839</v>
       </c>
       <c r="K111" t="n">
         <v>1.305194432787616</v>
       </c>
       <c r="L111" t="n">
-        <v>0.0851042998312317</v>
+        <v>0.09753621873635861</v>
       </c>
       <c r="M111" t="n">
         <v>1.305194432787616</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1387968555989525</v>
+        <v>0.130925316502846</v>
       </c>
       <c r="O111" t="n">
         <v>1.305194432787616</v>
@@ -4087,25 +4087,25 @@
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.07903772935921195</v>
+        <v>0.07328091008183105</v>
       </c>
       <c r="G112" t="n">
         <v>1.333568224804738</v>
       </c>
       <c r="J112" t="n">
-        <v>0.07903772935921195</v>
+        <v>0.07328091008183105</v>
       </c>
       <c r="K112" t="n">
         <v>1.333568224804738</v>
       </c>
       <c r="L112" t="n">
-        <v>0.0870431432984481</v>
+        <v>0.09957879734271695</v>
       </c>
       <c r="M112" t="n">
         <v>1.333568224804738</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1396959757938243</v>
+        <v>0.1341043765894327</v>
       </c>
       <c r="O112" t="n">
         <v>1.333568224804738</v>
@@ -4113,25 +4113,25 @@
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.08090078971547209</v>
+        <v>0.07318536345806519</v>
       </c>
       <c r="G113" t="n">
         <v>1.361942016821861</v>
       </c>
       <c r="J113" t="n">
-        <v>0.08090078971547209</v>
+        <v>0.07318536345806519</v>
       </c>
       <c r="K113" t="n">
         <v>1.361942016821861</v>
       </c>
       <c r="L113" t="n">
-        <v>0.08768058552642623</v>
+        <v>0.1010150275139246</v>
       </c>
       <c r="M113" t="n">
         <v>1.361942016821861</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1421928807616361</v>
+        <v>0.1355521910859208</v>
       </c>
       <c r="O113" t="n">
         <v>1.361942016821861</v>
@@ -4139,25 +4139,25 @@
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.08096823130201827</v>
+        <v>0.07493143733243808</v>
       </c>
       <c r="G114" t="n">
         <v>1.390315808838983</v>
       </c>
       <c r="J114" t="n">
-        <v>0.08096823130201827</v>
+        <v>0.07493143733243808</v>
       </c>
       <c r="K114" t="n">
         <v>1.390315808838983</v>
       </c>
       <c r="L114" t="n">
-        <v>0.08965378539595066</v>
+        <v>0.1025654674421524</v>
       </c>
       <c r="M114" t="n">
         <v>1.390315808838983</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1434976358056034</v>
+        <v>0.1369048919228696</v>
       </c>
       <c r="O114" t="n">
         <v>1.390315808838983</v>
@@ -4165,25 +4165,25 @@
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.08337691353910368</v>
+        <v>0.07619582575865191</v>
       </c>
       <c r="G115" t="n">
         <v>1.418689600856105</v>
       </c>
       <c r="J115" t="n">
-        <v>0.08337691353910368</v>
+        <v>0.07619582575865191</v>
       </c>
       <c r="K115" t="n">
         <v>1.418689600856105</v>
       </c>
       <c r="L115" t="n">
-        <v>0.09003148023136863</v>
+        <v>0.1033184114097417</v>
       </c>
       <c r="M115" t="n">
         <v>1.418689600856105</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1451620058207679</v>
+        <v>0.138923844362636</v>
       </c>
       <c r="O115" t="n">
         <v>1.418689600856105</v>
@@ -4191,25 +4191,25 @@
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.08436216346739009</v>
+        <v>0.07738815132704806</v>
       </c>
       <c r="G116" t="n">
         <v>1.447063392873227</v>
       </c>
       <c r="J116" t="n">
-        <v>0.08436216346739009</v>
+        <v>0.07738815132704806</v>
       </c>
       <c r="K116" t="n">
         <v>1.447063392873227</v>
       </c>
       <c r="L116" t="n">
-        <v>0.09172824374065143</v>
+        <v>0.1056439489365441</v>
       </c>
       <c r="M116" t="n">
         <v>1.447063392873227</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1463001023590536</v>
+        <v>0.1394654433857824</v>
       </c>
       <c r="O116" t="n">
         <v>1.447063392873227</v>
@@ -4217,25 +4217,25 @@
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.08470642655367086</v>
+        <v>0.07858991087777836</v>
       </c>
       <c r="G117" t="n">
         <v>1.475437184890349</v>
       </c>
       <c r="J117" t="n">
-        <v>0.08470642655367086</v>
+        <v>0.07858991087777836</v>
       </c>
       <c r="K117" t="n">
         <v>1.475437184890349</v>
       </c>
       <c r="L117" t="n">
-        <v>0.09334140430359232</v>
+        <v>0.1061663016195382</v>
       </c>
       <c r="M117" t="n">
         <v>1.475437184890349</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1488932763762006</v>
+        <v>0.1436204771099583</v>
       </c>
       <c r="O117" t="n">
         <v>1.475437184890349</v>
@@ -4243,25 +4243,25 @@
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.08520069308750608</v>
+        <v>0.07933544317892628</v>
       </c>
       <c r="G118" t="n">
         <v>1.503810976907471</v>
       </c>
       <c r="J118" t="n">
-        <v>0.08520069308750608</v>
+        <v>0.07933544317892628</v>
       </c>
       <c r="K118" t="n">
         <v>1.503810976907471</v>
       </c>
       <c r="L118" t="n">
-        <v>0.09404727237958367</v>
+        <v>0.1079148470254033</v>
       </c>
       <c r="M118" t="n">
         <v>1.503810976907471</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1511935831821102</v>
+        <v>0.1450257370123256</v>
       </c>
       <c r="O118" t="n">
         <v>1.503810976907471</v>
@@ -4269,25 +4269,25 @@
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.08702634053909002</v>
+        <v>0.07886935526544964</v>
       </c>
       <c r="G119" t="n">
         <v>1.532184768924593</v>
       </c>
       <c r="J119" t="n">
-        <v>0.08702634053909002</v>
+        <v>0.07886935526544964</v>
       </c>
       <c r="K119" t="n">
         <v>1.532184768924593</v>
       </c>
       <c r="L119" t="n">
-        <v>0.09479406685062833</v>
+        <v>0.1079880629459531</v>
       </c>
       <c r="M119" t="n">
         <v>1.532184768924593</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1521048708525603</v>
+        <v>0.1461794759466349</v>
       </c>
       <c r="O119" t="n">
         <v>1.532184768924593</v>
@@ -4295,25 +4295,25 @@
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.08667764794711054</v>
+        <v>0.07970158154706357</v>
       </c>
       <c r="G120" t="n">
         <v>1.560558560941715</v>
       </c>
       <c r="J120" t="n">
-        <v>0.08667764794711054</v>
+        <v>0.07970158154706357</v>
       </c>
       <c r="K120" t="n">
         <v>1.560558560941715</v>
       </c>
       <c r="L120" t="n">
-        <v>0.09624451879371219</v>
+        <v>0.1101278112495884</v>
       </c>
       <c r="M120" t="n">
         <v>1.560558560941715</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1535241712224284</v>
+        <v>0.1478522241382093</v>
       </c>
       <c r="O120" t="n">
         <v>1.560558560941715</v>
@@ -4321,25 +4321,25 @@
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.08852269200129613</v>
+        <v>0.08076687635682897</v>
       </c>
       <c r="G121" t="n">
         <v>1.588932352958837</v>
       </c>
       <c r="J121" t="n">
-        <v>0.08852269200129613</v>
+        <v>0.08076687635682897</v>
       </c>
       <c r="K121" t="n">
         <v>1.588932352958837</v>
       </c>
       <c r="L121" t="n">
-        <v>0.09762281501890334</v>
+        <v>0.1105085479164757</v>
       </c>
       <c r="M121" t="n">
         <v>1.588932352958837</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1561476066602299</v>
+        <v>0.1495819874246329</v>
       </c>
       <c r="O121" t="n">
         <v>1.588932352958837</v>
@@ -4347,25 +4347,25 @@
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.08837853856514792</v>
+        <v>0.08132277616353523</v>
       </c>
       <c r="G122" t="n">
         <v>1.617306144975959</v>
       </c>
       <c r="J122" t="n">
-        <v>0.08837853856514792</v>
+        <v>0.08132277616353523</v>
       </c>
       <c r="K122" t="n">
         <v>1.617306144975959</v>
       </c>
       <c r="L122" t="n">
-        <v>0.09769127383724957</v>
+        <v>0.1117718544697406</v>
       </c>
       <c r="M122" t="n">
         <v>1.617306144975959</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1563783451614333</v>
+        <v>0.1493881068350338</v>
       </c>
       <c r="O122" t="n">
         <v>1.617306144975959</v>
@@ -4373,25 +4373,25 @@
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.08914449792968707</v>
+        <v>0.08271816814494294</v>
       </c>
       <c r="G123" t="n">
         <v>1.645679936993081</v>
       </c>
       <c r="J123" t="n">
-        <v>0.08914449792968707</v>
+        <v>0.08271816814494294</v>
       </c>
       <c r="K123" t="n">
         <v>1.645679936993081</v>
       </c>
       <c r="L123" t="n">
-        <v>0.09742728515302615</v>
+        <v>0.1119295245292701</v>
       </c>
       <c r="M123" t="n">
         <v>1.645679936993081</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1572758342210203</v>
+        <v>0.1516756022566548</v>
       </c>
       <c r="O123" t="n">
         <v>1.645679936993081</v>
@@ -4399,25 +4399,25 @@
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.09064761715360857</v>
+        <v>0.08273114494631249</v>
       </c>
       <c r="G124" t="n">
         <v>1.674053729010204</v>
       </c>
       <c r="J124" t="n">
-        <v>0.09064761715360857</v>
+        <v>0.08273114494631249</v>
       </c>
       <c r="K124" t="n">
         <v>1.674053729010204</v>
       </c>
       <c r="L124" t="n">
-        <v>0.09939183337591384</v>
+        <v>0.1145004789610395</v>
       </c>
       <c r="M124" t="n">
         <v>1.674053729010204</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1603247669787611</v>
+        <v>0.1512310719480159</v>
       </c>
       <c r="O124" t="n">
         <v>1.674053729010204</v>
@@ -4425,25 +4425,25 @@
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.09023638610025782</v>
+        <v>0.08286546897108558</v>
       </c>
       <c r="G125" t="n">
         <v>1.702427521027326</v>
       </c>
       <c r="J125" t="n">
-        <v>0.09023638610025782</v>
+        <v>0.08286546897108558</v>
       </c>
       <c r="K125" t="n">
         <v>1.702427521027326</v>
       </c>
       <c r="L125" t="n">
-        <v>0.09950648931051512</v>
+        <v>0.1134823985839799</v>
       </c>
       <c r="M125" t="n">
         <v>1.702427521027326</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1596983789510742</v>
+        <v>0.1535528215323154</v>
       </c>
       <c r="O125" t="n">
         <v>1.702427521027326</v>
@@ -4451,25 +4451,25 @@
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.09091997160788358</v>
+        <v>0.08472876188066765</v>
       </c>
       <c r="G126" t="n">
         <v>1.730801313044448</v>
       </c>
       <c r="J126" t="n">
-        <v>0.09091997160788358</v>
+        <v>0.08472876188066765</v>
       </c>
       <c r="K126" t="n">
         <v>1.730801313044448</v>
       </c>
       <c r="L126" t="n">
-        <v>0.0998283877410033</v>
+        <v>0.1142961013346991</v>
       </c>
       <c r="M126" t="n">
         <v>1.730801313044448</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1600214280685434</v>
+        <v>0.1553925981461407</v>
       </c>
       <c r="O126" t="n">
         <v>1.730801313044448</v>
@@ -4477,25 +4477,25 @@
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.09191188212069404</v>
+        <v>0.08516649872393223</v>
       </c>
       <c r="G127" t="n">
         <v>1.75917510506157</v>
       </c>
       <c r="J127" t="n">
-        <v>0.09191188212069404</v>
+        <v>0.08516649872393223</v>
       </c>
       <c r="K127" t="n">
         <v>1.75917510506157</v>
       </c>
       <c r="L127" t="n">
-        <v>0.1012111319468715</v>
+        <v>0.1161465106279839</v>
       </c>
       <c r="M127" t="n">
         <v>1.75917510506157</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1636194290470388</v>
+        <v>0.1535304482046675</v>
       </c>
       <c r="O127" t="n">
         <v>1.75917510506157</v>
@@ -4503,25 +4503,25 @@
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.09259702785162104</v>
+        <v>0.08561356576294289</v>
       </c>
       <c r="G128" t="n">
         <v>1.787548897078692</v>
       </c>
       <c r="J128" t="n">
-        <v>0.09259702785162104</v>
+        <v>0.08561356576294289</v>
       </c>
       <c r="K128" t="n">
         <v>1.787548897078692</v>
       </c>
       <c r="L128" t="n">
-        <v>0.1014664341548424</v>
+        <v>0.1173623124981479</v>
       </c>
       <c r="M128" t="n">
         <v>1.787548897078692</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1620917503180741</v>
+        <v>0.1570476007587955</v>
       </c>
       <c r="O128" t="n">
         <v>1.787548897078692</v>
@@ -4529,25 +4529,25 @@
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.09414409990087644</v>
+        <v>0.0857434752681125</v>
       </c>
       <c r="G129" t="n">
         <v>1.815922689095814</v>
       </c>
       <c r="J129" t="n">
-        <v>0.09414409990087644</v>
+        <v>0.0857434752681125</v>
       </c>
       <c r="K129" t="n">
         <v>1.815922689095814</v>
       </c>
       <c r="L129" t="n">
-        <v>0.1018518187637858</v>
+        <v>0.1178584850760889</v>
       </c>
       <c r="M129" t="n">
         <v>1.815922689095814</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1654542796102609</v>
+        <v>0.1571775914335825</v>
       </c>
       <c r="O129" t="n">
         <v>1.815922689095814</v>
@@ -4555,25 +4555,25 @@
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.09443721595725618</v>
+        <v>0.08601594030700989</v>
       </c>
       <c r="G130" t="n">
         <v>1.844296481112936</v>
       </c>
       <c r="J130" t="n">
-        <v>0.09443721595725618</v>
+        <v>0.08601594030700989</v>
       </c>
       <c r="K130" t="n">
         <v>1.844296481112936</v>
       </c>
       <c r="L130" t="n">
-        <v>0.1032368649377829</v>
+        <v>0.1175010225721131</v>
       </c>
       <c r="M130" t="n">
         <v>1.844296481112936</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1647736968151571</v>
+        <v>0.1591966632271119</v>
       </c>
       <c r="O130" t="n">
         <v>1.844296481112936</v>
@@ -4581,25 +4581,25 @@
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.09517163371776342</v>
+        <v>0.08729479370219484</v>
       </c>
       <c r="G131" t="n">
         <v>1.872670273130058</v>
       </c>
       <c r="J131" t="n">
-        <v>0.09517163371776342</v>
+        <v>0.08729479370219484</v>
       </c>
       <c r="K131" t="n">
         <v>1.872670273130058</v>
       </c>
       <c r="L131" t="n">
-        <v>0.1037596623263221</v>
+        <v>0.1190119759051731</v>
       </c>
       <c r="M131" t="n">
         <v>1.872670273130058</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1661405438971762</v>
+        <v>0.1601159657820534</v>
       </c>
       <c r="O131" t="n">
         <v>1.872670273130058</v>
@@ -4607,25 +4607,25 @@
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.09526075866039724</v>
+        <v>0.08724382591334744</v>
       </c>
       <c r="G132" t="n">
         <v>1.90104406514718</v>
       </c>
       <c r="J132" t="n">
-        <v>0.09526075866039724</v>
+        <v>0.08724382591334744</v>
       </c>
       <c r="K132" t="n">
         <v>1.90104406514718</v>
       </c>
       <c r="L132" t="n">
-        <v>0.1053797168172595</v>
+        <v>0.119922005505745</v>
       </c>
       <c r="M132" t="n">
         <v>1.90104406514718</v>
       </c>
       <c r="N132" t="n">
-        <v>0.166941315354281</v>
+        <v>0.1595276651259675</v>
       </c>
       <c r="O132" t="n">
         <v>1.90104406514718</v>
@@ -4633,25 +4633,25 @@
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.09644493751483735</v>
+        <v>0.08890345076922883</v>
       </c>
       <c r="G133" t="n">
         <v>1.929417857164302</v>
       </c>
       <c r="J133" t="n">
-        <v>0.09644493751483735</v>
+        <v>0.08890345076922883</v>
       </c>
       <c r="K133" t="n">
         <v>1.929417857164302</v>
       </c>
       <c r="L133" t="n">
-        <v>0.1045374858913557</v>
+        <v>0.1212320383949646</v>
       </c>
       <c r="M133" t="n">
         <v>1.929417857164302</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1705951548900221</v>
+        <v>0.1609352428022656</v>
       </c>
       <c r="O133" t="n">
         <v>1.929417857164302</v>
@@ -4659,25 +4659,25 @@
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.09708614988963818</v>
+        <v>0.0885101136903441</v>
       </c>
       <c r="G134" t="n">
         <v>1.957791649181424</v>
       </c>
       <c r="J134" t="n">
-        <v>0.09708614988963818</v>
+        <v>0.0885101136903441</v>
       </c>
       <c r="K134" t="n">
         <v>1.957791649181424</v>
       </c>
       <c r="L134" t="n">
-        <v>0.1063667856163048</v>
+        <v>0.1221716998155438</v>
       </c>
       <c r="M134" t="n">
         <v>1.957791649181424</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1699433374158746</v>
+        <v>0.1627363651391993</v>
       </c>
       <c r="O134" t="n">
         <v>1.957791649181424</v>
@@ -4685,25 +4685,25 @@
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.09787196809859948</v>
+        <v>0.08883552990859685</v>
       </c>
       <c r="G135" t="n">
         <v>1.986165441198547</v>
       </c>
       <c r="J135" t="n">
-        <v>0.09787196809859948</v>
+        <v>0.08883552990859685</v>
       </c>
       <c r="K135" t="n">
         <v>1.986165441198547</v>
       </c>
       <c r="L135" t="n">
-        <v>0.1074095969414772</v>
+        <v>0.1225377441531851</v>
       </c>
       <c r="M135" t="n">
         <v>1.986165441198547</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1701750363673845</v>
+        <v>0.1626013567118323</v>
       </c>
       <c r="O135" t="n">
         <v>1.986165441198547</v>
@@ -4711,25 +4711,25 @@
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.09847263436158366</v>
+        <v>0.0904938606639742</v>
       </c>
       <c r="G136" t="n">
         <v>2.014539233215669</v>
       </c>
       <c r="J136" t="n">
-        <v>0.09847263436158366</v>
+        <v>0.0904938606639742</v>
       </c>
       <c r="K136" t="n">
         <v>2.014539233215669</v>
       </c>
       <c r="L136" t="n">
-        <v>0.1071787988779128</v>
+        <v>0.1225526280494219</v>
       </c>
       <c r="M136" t="n">
         <v>2.014539233215669</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1722871603914474</v>
+        <v>0.1647498677811773</v>
       </c>
       <c r="O136" t="n">
         <v>2.014539233215669</v>
@@ -4737,25 +4737,25 @@
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.09722573775221015</v>
+        <v>0.09088104788713641</v>
       </c>
       <c r="G137" t="n">
         <v>2.042913025232791</v>
       </c>
       <c r="J137" t="n">
-        <v>0.09722573775221015</v>
+        <v>0.09088104788713641</v>
       </c>
       <c r="K137" t="n">
         <v>2.042913025232791</v>
       </c>
       <c r="L137" t="n">
-        <v>0.1088223307128276</v>
+        <v>0.123272709954527</v>
       </c>
       <c r="M137" t="n">
         <v>2.042913025232791</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1724510859975331</v>
+        <v>0.1645279617261552</v>
       </c>
       <c r="O137" t="n">
         <v>2.042913025232791</v>
@@ -4763,25 +4763,25 @@
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.09929067031234878</v>
+        <v>0.0913179827403361</v>
       </c>
       <c r="G138" t="n">
         <v>2.071286817249913</v>
       </c>
       <c r="J138" t="n">
-        <v>0.09929067031234878</v>
+        <v>0.0913179827403361</v>
       </c>
       <c r="K138" t="n">
         <v>2.071286817249913</v>
       </c>
       <c r="L138" t="n">
-        <v>0.1093565582947264</v>
+        <v>0.1254553219341916</v>
       </c>
       <c r="M138" t="n">
         <v>2.071286817249913</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1757857066503946</v>
+        <v>0.1670457838593631</v>
       </c>
       <c r="O138" t="n">
         <v>2.071286817249913</v>
@@ -4789,25 +4789,25 @@
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.09877841707182197</v>
+        <v>0.09138523834799957</v>
       </c>
       <c r="G139" t="n">
         <v>2.099660609267035</v>
       </c>
       <c r="J139" t="n">
-        <v>0.09877841707182197</v>
+        <v>0.09138523834799957</v>
       </c>
       <c r="K139" t="n">
         <v>2.099660609267035</v>
       </c>
       <c r="L139" t="n">
-        <v>0.1091547522128237</v>
+        <v>0.1255746971250017</v>
       </c>
       <c r="M139" t="n">
         <v>2.099660609267035</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1761807629743927</v>
+        <v>0.1659651789774277</v>
       </c>
       <c r="O139" t="n">
         <v>2.099660609267035</v>
@@ -4815,25 +4815,25 @@
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.100235213629209</v>
+        <v>0.09215914775968621</v>
       </c>
       <c r="G140" t="n">
         <v>2.128034401284157</v>
       </c>
       <c r="J140" t="n">
-        <v>0.100235213629209</v>
+        <v>0.09215914775968621</v>
       </c>
       <c r="K140" t="n">
         <v>2.128034401284157</v>
       </c>
       <c r="L140" t="n">
-        <v>0.1101998312156354</v>
+        <v>0.1263226518116591</v>
       </c>
       <c r="M140" t="n">
         <v>2.128034401284157</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1750655990551011</v>
+        <v>0.1695584908872472</v>
       </c>
       <c r="O140" t="n">
         <v>2.128034401284157</v>
@@ -4841,25 +4841,25 @@
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.1000118950656368</v>
+        <v>0.09211953542788859</v>
       </c>
       <c r="G141" t="n">
         <v>2.156408193301279</v>
       </c>
       <c r="J141" t="n">
-        <v>0.1000118950656368</v>
+        <v>0.09211953542788859</v>
       </c>
       <c r="K141" t="n">
         <v>2.156408193301279</v>
       </c>
       <c r="L141" t="n">
-        <v>0.1097783522009246</v>
+        <v>0.1256883357182371</v>
       </c>
       <c r="M141" t="n">
         <v>2.156408193301279</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1775100921662426</v>
+        <v>0.1683085271707183</v>
       </c>
       <c r="O141" t="n">
         <v>2.156408193301279</v>
@@ -4867,25 +4867,25 @@
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.1004400889411471</v>
+        <v>0.09350550310312886</v>
       </c>
       <c r="G142" t="n">
         <v>2.184781985318401</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1004400889411471</v>
+        <v>0.09350550310312886</v>
       </c>
       <c r="K142" t="n">
         <v>2.184781985318401</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1110232735028647</v>
+        <v>0.1256553711195985</v>
       </c>
       <c r="M142" t="n">
         <v>2.184781985318401</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1776664937734903</v>
+        <v>0.1707763566760342</v>
       </c>
       <c r="O142" t="n">
         <v>2.184781985318401</v>
@@ -4893,25 +4893,25 @@
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.1007394406581275</v>
+        <v>0.0930599496760191</v>
       </c>
       <c r="G143" t="n">
         <v>2.213155777335523</v>
       </c>
       <c r="J143" t="n">
-        <v>0.1007394406581275</v>
+        <v>0.0930599496760191</v>
       </c>
       <c r="K143" t="n">
         <v>2.213155777335523</v>
       </c>
       <c r="L143" t="n">
-        <v>0.1104876507003823</v>
+        <v>0.128526829200556</v>
       </c>
       <c r="M143" t="n">
         <v>2.213155777335523</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1784110978837105</v>
+        <v>0.1719869451132699</v>
       </c>
       <c r="O143" t="n">
         <v>2.213155777335523</v>
@@ -4919,25 +4919,25 @@
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.1025954598027274</v>
+        <v>0.09352514670040782</v>
       </c>
       <c r="G144" t="n">
         <v>2.241529569352645</v>
       </c>
       <c r="J144" t="n">
-        <v>0.1025954598027274</v>
+        <v>0.09352514670040782</v>
       </c>
       <c r="K144" t="n">
         <v>2.241529569352645</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1116771975576722</v>
+        <v>0.1271328965510377</v>
       </c>
       <c r="M144" t="n">
         <v>2.241529569352645</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1782627228839135</v>
+        <v>0.1716132196498317</v>
       </c>
       <c r="O144" t="n">
         <v>2.241529569352645</v>
@@ -4945,25 +4945,25 @@
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.1019945754043709</v>
+        <v>0.09370139751450422</v>
       </c>
       <c r="G145" t="n">
         <v>2.269903361369768</v>
       </c>
       <c r="J145" t="n">
-        <v>0.1019945754043709</v>
+        <v>0.09370139751450422</v>
       </c>
       <c r="K145" t="n">
         <v>2.269903361369768</v>
       </c>
       <c r="L145" t="n">
-        <v>0.1127964194500624</v>
+        <v>0.1281418115845215</v>
       </c>
       <c r="M145" t="n">
         <v>2.269903361369768</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1817482076832612</v>
+        <v>0.1730551729328867</v>
       </c>
       <c r="O145" t="n">
         <v>2.269903361369768</v>
@@ -4971,25 +4971,25 @@
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.1017041065411892</v>
+        <v>0.09440506877091021</v>
       </c>
       <c r="G146" t="n">
         <v>2.29827715338689</v>
       </c>
       <c r="J146" t="n">
-        <v>0.1017041065411892</v>
+        <v>0.09440506877091021</v>
       </c>
       <c r="K146" t="n">
         <v>2.29827715338689</v>
       </c>
       <c r="L146" t="n">
-        <v>0.1119956033796015</v>
+        <v>0.1286010902345659</v>
       </c>
       <c r="M146" t="n">
         <v>2.29827715338689</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1818219907927975</v>
+        <v>0.1722088499184003</v>
       </c>
       <c r="O146" t="n">
         <v>2.29827715338689</v>
@@ -4997,25 +4997,25 @@
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.1034672209338034</v>
+        <v>0.09472369595791566</v>
       </c>
       <c r="G147" t="n">
         <v>2.326650945404012</v>
       </c>
       <c r="J147" t="n">
-        <v>0.1034672209338034</v>
+        <v>0.09472369595791566</v>
       </c>
       <c r="K147" t="n">
         <v>2.326650945404012</v>
       </c>
       <c r="L147" t="n">
-        <v>0.1136400135306273</v>
+        <v>0.1295532748177238</v>
       </c>
       <c r="M147" t="n">
         <v>2.326650945404012</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1818187208880926</v>
+        <v>0.1739509364866774</v>
       </c>
       <c r="O147" t="n">
         <v>2.326650945404012</v>
@@ -5023,25 +5023,25 @@
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.1028542654291404</v>
+        <v>0.09577350172556214</v>
       </c>
       <c r="G148" t="n">
         <v>2.355024737421134</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1028542654291404</v>
+        <v>0.09577350172556214</v>
       </c>
       <c r="K148" t="n">
         <v>2.355024737421134</v>
       </c>
       <c r="L148" t="n">
-        <v>0.1132953573848602</v>
+        <v>0.1297932977945168</v>
       </c>
       <c r="M148" t="n">
         <v>2.355024737421134</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1828486699867002</v>
+        <v>0.1728134006474779</v>
       </c>
       <c r="O148" t="n">
         <v>2.355024737421134</v>
@@ -5049,25 +5049,25 @@
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.1038920949275141</v>
+        <v>0.09618867229165773</v>
       </c>
       <c r="G149" t="n">
         <v>2.383398529438256</v>
       </c>
       <c r="J149" t="n">
-        <v>0.1038920949275141</v>
+        <v>0.09618867229165773</v>
       </c>
       <c r="K149" t="n">
         <v>2.383398529438256</v>
       </c>
       <c r="L149" t="n">
-        <v>0.1150291504642677</v>
+        <v>0.1317017029384737</v>
       </c>
       <c r="M149" t="n">
         <v>2.383398529438256</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1826363487786803</v>
+        <v>0.1749611306237271</v>
       </c>
       <c r="O149" t="n">
         <v>2.383398529438256</v>
@@ -5075,25 +5075,25 @@
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.1039763165133606</v>
+        <v>0.09644988882435078</v>
       </c>
       <c r="G150" t="n">
         <v>2.411772321455378</v>
       </c>
       <c r="J150" t="n">
-        <v>0.1039763165133606</v>
+        <v>0.09644988882435078</v>
       </c>
       <c r="K150" t="n">
         <v>2.411772321455378</v>
       </c>
       <c r="L150" t="n">
-        <v>0.1138102466768086</v>
+        <v>0.1318105384088188</v>
       </c>
       <c r="M150" t="n">
         <v>2.411772321455378</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1819573734250148</v>
+        <v>0.1750679866483135</v>
       </c>
       <c r="O150" t="n">
         <v>2.411772321455378</v>
@@ -5101,25 +5101,25 @@
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.1049225520455697</v>
+        <v>0.09566303812723738</v>
       </c>
       <c r="G151" t="n">
         <v>2.4401461134725</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1049225520455697</v>
+        <v>0.09566303812723738</v>
       </c>
       <c r="K151" t="n">
         <v>2.4401461134725</v>
       </c>
       <c r="L151" t="n">
-        <v>0.1140120502020117</v>
+        <v>0.1311002185008427</v>
       </c>
       <c r="M151" t="n">
         <v>2.4401461134725</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1823159238167421</v>
+        <v>0.1770827986911575</v>
       </c>
       <c r="O151" t="n">
         <v>2.4401461134725</v>
@@ -5127,25 +5127,25 @@
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.104520361682096</v>
+        <v>0.09592567489526667</v>
       </c>
       <c r="G152" t="n">
         <v>2.468519905489622</v>
       </c>
       <c r="J152" t="n">
-        <v>0.104520361682096</v>
+        <v>0.09592567489526667</v>
       </c>
       <c r="K152" t="n">
         <v>2.468519905489622</v>
       </c>
       <c r="L152" t="n">
-        <v>0.1159571288557976</v>
+        <v>0.1319211321711362</v>
       </c>
       <c r="M152" t="n">
         <v>2.468519905489622</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1847167628487043</v>
+        <v>0.1743990372167568</v>
       </c>
       <c r="O152" t="n">
         <v>2.468519905489622</v>
@@ -5153,25 +5153,25 @@
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.1044570605441206</v>
+        <v>0.09705308238847349</v>
       </c>
       <c r="G153" t="n">
         <v>2.496893697506744</v>
       </c>
       <c r="J153" t="n">
-        <v>0.1044570605441206</v>
+        <v>0.09705308238847349</v>
       </c>
       <c r="K153" t="n">
         <v>2.496893697506744</v>
       </c>
       <c r="L153" t="n">
-        <v>0.1143347994222773</v>
+        <v>0.1331493351913142</v>
       </c>
       <c r="M153" t="n">
         <v>2.496893697506744</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1857341644804213</v>
+        <v>0.1758597111441564</v>
       </c>
       <c r="O153" t="n">
         <v>2.496893697506744</v>
@@ -5179,25 +5179,25 @@
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.1043881102887172</v>
+        <v>0.0963249512084353</v>
       </c>
       <c r="G154" t="n">
         <v>2.525267489523866</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1043881102887172</v>
+        <v>0.0963249512084353</v>
       </c>
       <c r="K154" t="n">
         <v>2.525267489523866</v>
       </c>
       <c r="L154" t="n">
-        <v>0.1163828550213736</v>
+        <v>0.1324308830860844</v>
       </c>
       <c r="M154" t="n">
         <v>2.525267489523866</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1838362288933605</v>
+        <v>0.1760266410763962</v>
       </c>
       <c r="O154" t="n">
         <v>2.525267489523866</v>
@@ -5205,25 +5205,25 @@
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.1056924604241276</v>
+        <v>0.09697327604374129</v>
       </c>
       <c r="G155" t="n">
         <v>2.553641281540989</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1056924604241276</v>
+        <v>0.09697327604374129</v>
       </c>
       <c r="K155" t="n">
         <v>2.553641281540989</v>
       </c>
       <c r="L155" t="n">
-        <v>0.1162112177394961</v>
+        <v>0.1333594396418005</v>
       </c>
       <c r="M155" t="n">
         <v>2.553641281540989</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1853193200770345</v>
+        <v>0.1790213872254087</v>
       </c>
       <c r="O155" t="n">
         <v>2.553641281540989</v>
@@ -5231,25 +5231,25 @@
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.1059720781746878</v>
+        <v>0.0967837675703167</v>
       </c>
       <c r="G156" t="n">
         <v>2.58201507355811</v>
       </c>
       <c r="J156" t="n">
-        <v>0.1059720781746878</v>
+        <v>0.0967837675703167</v>
       </c>
       <c r="K156" t="n">
         <v>2.58201507355811</v>
       </c>
       <c r="L156" t="n">
-        <v>0.1158810745573148</v>
+        <v>0.1321180025236661</v>
       </c>
       <c r="M156" t="n">
         <v>2.58201507355811</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1847872235081384</v>
+        <v>0.1764569082600419</v>
       </c>
       <c r="O156" t="n">
         <v>2.58201507355811</v>
@@ -5257,25 +5257,25 @@
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.1063934269049184</v>
+        <v>0.09793786839676588</v>
       </c>
       <c r="G157" t="n">
         <v>2.610388865575233</v>
       </c>
       <c r="J157" t="n">
-        <v>0.1063934269049184</v>
+        <v>0.09793786839676588</v>
       </c>
       <c r="K157" t="n">
         <v>2.610388865575233</v>
       </c>
       <c r="L157" t="n">
-        <v>0.1163316573304394</v>
+        <v>0.1325003160387682</v>
       </c>
       <c r="M157" t="n">
         <v>2.610388865575233</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1880057412680474</v>
+        <v>0.1786576140668334</v>
       </c>
       <c r="O157" t="n">
         <v>2.610388865575233</v>
@@ -5283,25 +5283,25 @@
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.1060150203544488</v>
+        <v>0.09757045065329921</v>
       </c>
       <c r="G158" t="n">
         <v>2.638762657592355</v>
       </c>
       <c r="J158" t="n">
-        <v>0.1060150203544488</v>
+        <v>0.09757045065329921</v>
       </c>
       <c r="K158" t="n">
         <v>2.638762657592355</v>
       </c>
       <c r="L158" t="n">
-        <v>0.1170657448862783</v>
+        <v>0.132328292839264</v>
       </c>
       <c r="M158" t="n">
         <v>2.638762657592355</v>
       </c>
       <c r="N158" t="n">
-        <v>0.186853486592316</v>
+        <v>0.1777882926911841</v>
       </c>
       <c r="O158" t="n">
         <v>2.638762657592355</v>
@@ -5309,25 +5309,25 @@
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.105574737034007</v>
+        <v>0.09716553510394675</v>
       </c>
       <c r="G159" t="n">
         <v>2.667136449609477</v>
       </c>
       <c r="J159" t="n">
-        <v>0.105574737034007</v>
+        <v>0.09716553510394675</v>
       </c>
       <c r="K159" t="n">
         <v>2.667136449609477</v>
       </c>
       <c r="L159" t="n">
-        <v>0.1154655629904125</v>
+        <v>0.1320659951286976</v>
       </c>
       <c r="M159" t="n">
         <v>2.667136449609477</v>
       </c>
       <c r="N159" t="n">
-        <v>0.186487471377551</v>
+        <v>0.178044461401559</v>
       </c>
       <c r="O159" t="n">
         <v>2.667136449609477</v>
@@ -5335,25 +5335,25 @@
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.1055065019353796</v>
+        <v>0.09721973215237828</v>
       </c>
       <c r="G160" t="n">
         <v>2.695510241626599</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1055065019353796</v>
+        <v>0.09721973215237828</v>
       </c>
       <c r="K160" t="n">
         <v>2.695510241626599</v>
       </c>
       <c r="L160" t="n">
-        <v>0.1170549364341232</v>
+        <v>0.1335936968903255</v>
       </c>
       <c r="M160" t="n">
         <v>2.695510241626599</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1867783753871645</v>
+        <v>0.1766454315568007</v>
       </c>
       <c r="O160" t="n">
         <v>2.695510241626599</v>
@@ -5361,25 +5361,25 @@
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.1059784033195007</v>
+        <v>0.09747840331950071</v>
       </c>
       <c r="G161" t="n">
         <v>2.723884033643721</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1059784033195007</v>
+        <v>0.09747840331950071</v>
       </c>
       <c r="K161" t="n">
         <v>2.723884033643721</v>
       </c>
       <c r="L161" t="n">
-        <v>0.116467604979251</v>
+        <v>0.133467604979251</v>
       </c>
       <c r="M161" t="n">
         <v>2.723884033643721</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1869568066390014</v>
+        <v>0.1784568066390014</v>
       </c>
       <c r="O161" t="n">
         <v>2.723884033643721</v>
@@ -5387,25 +5387,25 @@
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.1056064189520525</v>
+        <v>0.09810128047286783</v>
       </c>
       <c r="G162" t="n">
         <v>2.752257825660843</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1056064189520525</v>
+        <v>0.09810128047286783</v>
       </c>
       <c r="K162" t="n">
         <v>2.752257825660843</v>
       </c>
       <c r="L162" t="n">
-        <v>0.1170837081339764</v>
+        <v>0.1329724402163359</v>
       </c>
       <c r="M162" t="n">
         <v>2.752257825660843</v>
       </c>
       <c r="N162" t="n">
-        <v>0.186655802312012</v>
+        <v>0.1769203023792955</v>
       </c>
       <c r="O162" t="n">
         <v>2.752257825660843</v>
@@ -5413,25 +5413,25 @@
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.1049554798465755</v>
+        <v>0.09710275425013798</v>
       </c>
       <c r="G163" t="n">
         <v>2.780631617677965</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1049554798465755</v>
+        <v>0.09710275425013798</v>
       </c>
       <c r="K163" t="n">
         <v>2.780631617677965</v>
       </c>
       <c r="L163" t="n">
-        <v>0.1169852129188303</v>
+        <v>0.1333268797531265</v>
       </c>
       <c r="M163" t="n">
         <v>2.780631617677965</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1887596121650292</v>
+        <v>0.1780723933030626</v>
       </c>
       <c r="O163" t="n">
         <v>2.780631617677965</v>
@@ -5439,25 +5439,25 @@
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.1063575596197815</v>
+        <v>0.09657070749825281</v>
       </c>
       <c r="G164" t="n">
         <v>2.809005409695087</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1063575596197815</v>
+        <v>0.09657070749825281</v>
       </c>
       <c r="K164" t="n">
         <v>2.809005409695087</v>
       </c>
       <c r="L164" t="n">
-        <v>0.1171635816364839</v>
+        <v>0.1332649812198115</v>
       </c>
       <c r="M164" t="n">
         <v>2.809005409695087</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1864488137930703</v>
+        <v>0.1792735778219889</v>
       </c>
       <c r="O164" t="n">
         <v>2.809005409695087</v>
@@ -5465,25 +5465,25 @@
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.1051430785006648</v>
+        <v>0.09797515019104769</v>
       </c>
       <c r="G165" t="n">
         <v>2.837379201712209</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1051430785006648</v>
+        <v>0.09797515019104769</v>
       </c>
       <c r="K165" t="n">
         <v>2.837379201712209</v>
       </c>
       <c r="L165" t="n">
-        <v>0.1164448866750086</v>
+        <v>0.1324422578250132</v>
       </c>
       <c r="M165" t="n">
         <v>2.837379201712209</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1852032471522751</v>
+        <v>0.1794552942843002</v>
       </c>
       <c r="O165" t="n">
         <v>2.837379201712209</v>
@@ -5491,25 +5491,25 @@
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.1063404151381888</v>
+        <v>0.09680051010135921</v>
       </c>
       <c r="G166" t="n">
         <v>2.865752993729331</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1063404151381888</v>
+        <v>0.09680051010135921</v>
       </c>
       <c r="K166" t="n">
         <v>2.865752993729331</v>
       </c>
       <c r="L166" t="n">
-        <v>0.1151815067239886</v>
+        <v>0.1327789855130581</v>
       </c>
       <c r="M166" t="n">
         <v>2.865752993729331</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1866446857305463</v>
+        <v>0.1796536171943785</v>
       </c>
       <c r="O166" t="n">
         <v>2.865752993729331</v>
@@ -5517,25 +5517,25 @@
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.1061421520012352</v>
+        <v>0.09699815202679746</v>
       </c>
       <c r="G167" t="n">
         <v>2.894126785746454</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1061421520012352</v>
+        <v>0.09699815202679746</v>
       </c>
       <c r="K167" t="n">
         <v>2.894126785746454</v>
       </c>
       <c r="L167" t="n">
-        <v>0.1164272302542396</v>
+        <v>0.1340459189809333</v>
       </c>
       <c r="M167" t="n">
         <v>2.894126785746454</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1862404801653435</v>
+        <v>0.1783771742821219</v>
       </c>
       <c r="O167" t="n">
         <v>2.894126785746454</v>
@@ -5543,25 +5543,25 @@
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.1055560540393224</v>
+        <v>0.09747747443991932</v>
       </c>
       <c r="G168" t="n">
         <v>2.922500577763576</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1055560540393224</v>
+        <v>0.09747747443991932</v>
       </c>
       <c r="K168" t="n">
         <v>2.922500577763576</v>
       </c>
       <c r="L168" t="n">
-        <v>0.1160844859720234</v>
+        <v>0.1329224389444096</v>
       </c>
       <c r="M168" t="n">
         <v>2.922500577763576</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1875124896541185</v>
+        <v>0.1776746643375989</v>
       </c>
       <c r="O168" t="n">
         <v>2.922500577763576</v>
@@ -5569,25 +5569,25 @@
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.1048692196345795</v>
+        <v>0.09757011947517963</v>
       </c>
       <c r="G169" t="n">
         <v>2.950874369780698</v>
       </c>
       <c r="J169" t="n">
-        <v>0.1048692196345795</v>
+        <v>0.09757011947517963</v>
       </c>
       <c r="K169" t="n">
         <v>2.950874369780698</v>
       </c>
       <c r="L169" t="n">
-        <v>0.1157454013313455</v>
+        <v>0.1312896239087309</v>
       </c>
       <c r="M169" t="n">
         <v>2.950874369780698</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1860014963734822</v>
+        <v>0.178323790706517</v>
       </c>
       <c r="O169" t="n">
         <v>2.950874369780698</v>
@@ -5595,25 +5595,25 @@
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.1048701328838078</v>
+        <v>0.09574515358904273</v>
       </c>
       <c r="G170" t="n">
         <v>2.97924816179782</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1048701328838078</v>
+        <v>0.09574515358904273</v>
       </c>
       <c r="K170" t="n">
         <v>2.97924816179782</v>
       </c>
       <c r="L170" t="n">
-        <v>0.1159757889593738</v>
+        <v>0.1328511678233277</v>
       </c>
       <c r="M170" t="n">
         <v>2.97924816179782</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1847796793235577</v>
+        <v>0.1769084872790153</v>
       </c>
       <c r="O170" t="n">
         <v>2.97924816179782</v>
@@ -5621,25 +5621,25 @@
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.1055442909581892</v>
+        <v>0.0956165235034242</v>
       </c>
       <c r="G171" t="n">
         <v>3.007621953814942</v>
       </c>
       <c r="J171" t="n">
-        <v>0.1055442909581892</v>
+        <v>0.0956165235034242</v>
       </c>
       <c r="K171" t="n">
         <v>3.007621953814942</v>
       </c>
       <c r="L171" t="n">
-        <v>0.11547317346355</v>
+        <v>0.1315902322739363</v>
       </c>
       <c r="M171" t="n">
         <v>3.007621953814942</v>
       </c>
       <c r="N171" t="n">
-        <v>0.183441215031247</v>
+        <v>0.1750305883690846</v>
       </c>
       <c r="O171" t="n">
         <v>3.007621953814942</v>
@@ -5647,25 +5647,25 @@
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.1047689789753048</v>
+        <v>0.09633719486509908</v>
       </c>
       <c r="G172" t="n">
         <v>3.035995745832064</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1047689789753048</v>
+        <v>0.09633719486509908</v>
       </c>
       <c r="K172" t="n">
         <v>3.035995745832064</v>
       </c>
       <c r="L172" t="n">
-        <v>0.1156773118448607</v>
+        <v>0.1308408860215335</v>
       </c>
       <c r="M172" t="n">
         <v>3.035995745832064</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1843079682916828</v>
+        <v>0.1769648207645827</v>
       </c>
       <c r="O172" t="n">
         <v>3.035995745832064</v>
@@ -5673,25 +5673,25 @@
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.1038679742926002</v>
+        <v>0.09511633024969031</v>
       </c>
       <c r="G173" t="n">
         <v>3.064369537849186</v>
       </c>
       <c r="J173" t="n">
-        <v>0.1038679742926002</v>
+        <v>0.09511633024969031</v>
       </c>
       <c r="K173" t="n">
         <v>3.064369537849186</v>
       </c>
       <c r="L173" t="n">
-        <v>0.1139768511310542</v>
+        <v>0.1298536081819349</v>
       </c>
       <c r="M173" t="n">
         <v>3.064369537849186</v>
       </c>
       <c r="N173" t="n">
-        <v>0.184976779625869</v>
+        <v>0.174290102161444</v>
       </c>
       <c r="O173" t="n">
         <v>3.064369537849186</v>
@@ -5699,25 +5699,25 @@
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.1032583337740341</v>
+        <v>0.09533882075867062</v>
       </c>
       <c r="G174" t="n">
         <v>3.092743329866308</v>
       </c>
       <c r="J174" t="n">
-        <v>0.1032583337740341</v>
+        <v>0.09533882075867062</v>
       </c>
       <c r="K174" t="n">
         <v>3.092743329866308</v>
       </c>
       <c r="L174" t="n">
-        <v>0.1136378084889805</v>
+        <v>0.1317130449507087</v>
       </c>
       <c r="M174" t="n">
         <v>3.092743329866308</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1839687521950902</v>
+        <v>0.1744176148582739</v>
       </c>
       <c r="O174" t="n">
         <v>3.092743329866308</v>
@@ -5725,25 +5725,25 @@
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.1032068034103499</v>
+        <v>0.09506212009550352</v>
       </c>
       <c r="G175" t="n">
         <v>3.12111712188343</v>
       </c>
       <c r="J175" t="n">
-        <v>0.1032068034103499</v>
+        <v>0.09506212009550352</v>
       </c>
       <c r="K175" t="n">
         <v>3.12111712188343</v>
       </c>
       <c r="L175" t="n">
-        <v>0.1139438959972982</v>
+        <v>0.1294567170830395</v>
       </c>
       <c r="M175" t="n">
         <v>3.12111712188343</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1813384935436304</v>
+        <v>0.1742941596556858</v>
       </c>
       <c r="O175" t="n">
         <v>3.12111712188343</v>
@@ -5751,25 +5751,25 @@
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.1035949409708163</v>
+        <v>0.09493585965259317</v>
       </c>
       <c r="G176" t="n">
         <v>3.149490913900552</v>
       </c>
       <c r="J176" t="n">
-        <v>0.1035949409708163</v>
+        <v>0.09493585965259317</v>
       </c>
       <c r="K176" t="n">
         <v>3.149490913900552</v>
       </c>
       <c r="L176" t="n">
-        <v>0.113316661378008</v>
+        <v>0.1292994140820179</v>
       </c>
       <c r="M176" t="n">
         <v>3.149490913900552</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1813541689800036</v>
+        <v>0.1748938782476552</v>
       </c>
       <c r="O176" t="n">
         <v>3.149490913900552</v>
@@ -5777,25 +5777,25 @@
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.102070644539355</v>
+        <v>0.09375206109619259</v>
       </c>
       <c r="G177" t="n">
         <v>3.177864705917675</v>
       </c>
       <c r="J177" t="n">
-        <v>0.102070644539355</v>
+        <v>0.09375206109619259</v>
       </c>
       <c r="K177" t="n">
         <v>3.177864705917675</v>
       </c>
       <c r="L177" t="n">
-        <v>0.1124659856813316</v>
+        <v>0.1279007255854961</v>
       </c>
       <c r="M177" t="n">
         <v>3.177864705917675</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1825587202350948</v>
+        <v>0.173222966635146</v>
       </c>
       <c r="O177" t="n">
         <v>3.177864705917675</v>
@@ -5803,25 +5803,25 @@
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.102966022985874</v>
+        <v>0.09479214109319176</v>
       </c>
       <c r="G178" t="n">
         <v>3.206238497934796</v>
       </c>
       <c r="J178" t="n">
-        <v>0.102966022985874</v>
+        <v>0.09479214109319176</v>
       </c>
       <c r="K178" t="n">
         <v>3.206238497934796</v>
       </c>
       <c r="L178" t="n">
-        <v>0.112495140502462</v>
+        <v>0.1280024723175449</v>
       </c>
       <c r="M178" t="n">
         <v>3.206238497934796</v>
       </c>
       <c r="N178" t="n">
-        <v>0.179067315748264</v>
+        <v>0.1735045999520581</v>
       </c>
       <c r="O178" t="n">
         <v>3.206238497934796</v>
@@ -5829,25 +5829,25 @@
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.1009045959690549</v>
+        <v>0.09278349257689256</v>
       </c>
       <c r="G179" t="n">
         <v>3.234612289951919</v>
       </c>
       <c r="J179" t="n">
-        <v>0.1009045959690549</v>
+        <v>0.09278349257689256</v>
       </c>
       <c r="K179" t="n">
         <v>3.234612289951919</v>
       </c>
       <c r="L179" t="n">
-        <v>0.110846935231877</v>
+        <v>0.128396254261063</v>
       </c>
       <c r="M179" t="n">
         <v>3.234612289951919</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1792971571115848</v>
+        <v>0.1717787047601694</v>
       </c>
       <c r="O179" t="n">
         <v>3.234612289951919</v>
@@ -5855,25 +5855,25 @@
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.1008947033317623</v>
+        <v>0.09386346639907434</v>
       </c>
       <c r="G180" t="n">
         <v>3.262986081969041</v>
       </c>
       <c r="J180" t="n">
-        <v>0.1008947033317623</v>
+        <v>0.09386346639907434</v>
       </c>
       <c r="K180" t="n">
         <v>3.262986081969041</v>
       </c>
       <c r="L180" t="n">
-        <v>0.1117370112185071</v>
+        <v>0.1286072312338528</v>
       </c>
       <c r="M180" t="n">
         <v>3.262986081969041</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1776316242333102</v>
+        <v>0.1699986094093276</v>
       </c>
       <c r="O180" t="n">
         <v>3.262986081969041</v>
@@ -5881,25 +5881,25 @@
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.09986772176412582</v>
+        <v>0.09219131859946252</v>
       </c>
       <c r="G181" t="n">
         <v>3.291359873986163</v>
       </c>
       <c r="J181" t="n">
-        <v>0.09986772176412582</v>
+        <v>0.09219131859946252</v>
       </c>
       <c r="K181" t="n">
         <v>3.291359873986163</v>
       </c>
       <c r="L181" t="n">
-        <v>0.1097410511554794</v>
+        <v>0.127928139413748</v>
       </c>
       <c r="M181" t="n">
         <v>3.291359873986163</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1792328486641278</v>
+        <v>0.1683196754913011</v>
       </c>
       <c r="O181" t="n">
         <v>3.291359873986163</v>
@@ -5907,25 +5907,25 @@
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.09978338637052483</v>
+        <v>0.09220431285943187</v>
       </c>
       <c r="G182" t="n">
         <v>3.319733666003285</v>
       </c>
       <c r="J182" t="n">
-        <v>0.09978338637052483</v>
+        <v>0.09220431285943187</v>
       </c>
       <c r="K182" t="n">
         <v>3.319733666003285</v>
       </c>
       <c r="L182" t="n">
-        <v>0.1112455114786856</v>
+        <v>0.1261579560979269</v>
       </c>
       <c r="M182" t="n">
         <v>3.319733666003285</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1776370949572883</v>
+        <v>0.1690376365010674</v>
       </c>
       <c r="O182" t="n">
         <v>3.319733666003285</v>
@@ -5933,25 +5933,25 @@
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.0993721480216074</v>
+        <v>0.09151207050270574</v>
       </c>
       <c r="G183" t="n">
         <v>3.348107458020407</v>
       </c>
       <c r="J183" t="n">
-        <v>0.0993721480216074</v>
+        <v>0.09151207050270574</v>
       </c>
       <c r="K183" t="n">
         <v>3.348107458020407</v>
       </c>
       <c r="L183" t="n">
-        <v>0.1102595704606827</v>
+        <v>0.126742745801793</v>
       </c>
       <c r="M183" t="n">
         <v>3.348107458020407</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1745286516431049</v>
+        <v>0.1664089859988066</v>
       </c>
       <c r="O183" t="n">
         <v>3.348107458020407</v>
@@ -5959,25 +5959,25 @@
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.09911588114388559</v>
+        <v>0.09064617391831503</v>
       </c>
       <c r="G184" t="n">
         <v>3.376481250037529</v>
       </c>
       <c r="J184" t="n">
-        <v>0.09911588114388559</v>
+        <v>0.09064617391831503</v>
       </c>
       <c r="K184" t="n">
         <v>3.376481250037529</v>
       </c>
       <c r="L184" t="n">
-        <v>0.1089585725673048</v>
+        <v>0.126074422825577</v>
       </c>
       <c r="M184" t="n">
         <v>3.376481250037529</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1756206472195598</v>
+        <v>0.1671683024142333</v>
       </c>
       <c r="O184" t="n">
         <v>3.376481250037529</v>
@@ -5985,25 +5985,25 @@
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.09956550457013787</v>
+        <v>0.09138924897793164</v>
       </c>
       <c r="G185" t="n">
         <v>3.404855042054651</v>
       </c>
       <c r="J185" t="n">
-        <v>0.09956550457013787</v>
+        <v>0.09138924897793164</v>
       </c>
       <c r="K185" t="n">
         <v>3.404855042054651</v>
       </c>
       <c r="L185" t="n">
-        <v>0.1081945730948421</v>
+        <v>0.1238006045114698</v>
       </c>
       <c r="M185" t="n">
         <v>3.404855042054651</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1752260084395244</v>
+        <v>0.1658303507167676</v>
       </c>
       <c r="O185" t="n">
         <v>3.404855042054651</v>
@@ -6011,25 +6011,25 @@
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.097618815275215</v>
+        <v>0.09092666941502162</v>
       </c>
       <c r="G186" t="n">
         <v>3.433228834071773</v>
       </c>
       <c r="J186" t="n">
-        <v>0.097618815275215</v>
+        <v>0.09092666941502162</v>
       </c>
       <c r="K186" t="n">
         <v>3.433228834071773</v>
       </c>
       <c r="L186" t="n">
-        <v>0.1078630296809464</v>
+        <v>0.1239778613303839</v>
       </c>
       <c r="M186" t="n">
         <v>3.433228834071773</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1742525343328964</v>
+        <v>0.1660326739227915</v>
       </c>
       <c r="O186" t="n">
         <v>3.433228834071773</v>
@@ -6037,25 +6037,25 @@
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.09699554634314543</v>
+        <v>0.08996105423747029</v>
       </c>
       <c r="G187" t="n">
         <v>3.461602626088895</v>
       </c>
       <c r="J187" t="n">
-        <v>0.09699554634314543</v>
+        <v>0.08996105423747029</v>
       </c>
       <c r="K187" t="n">
         <v>3.461602626088895</v>
       </c>
       <c r="L187" t="n">
-        <v>0.1069066953453549</v>
+        <v>0.1221547301957838</v>
       </c>
       <c r="M187" t="n">
         <v>3.461602626088895</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1733998547637395</v>
+        <v>0.1644809241638822</v>
       </c>
       <c r="O187" t="n">
         <v>3.461602626088895</v>
@@ -6063,25 +6063,25 @@
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.09723792934365612</v>
+        <v>0.08937648316546251</v>
       </c>
       <c r="G188" t="n">
         <v>3.489976418106017</v>
       </c>
       <c r="J188" t="n">
-        <v>0.09723792934365612</v>
+        <v>0.08937648316546251</v>
       </c>
       <c r="K188" t="n">
         <v>3.489976418106017</v>
       </c>
       <c r="L188" t="n">
-        <v>0.1055930500518499</v>
+        <v>0.122692170073679</v>
       </c>
       <c r="M188" t="n">
         <v>3.489976418106017</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1726161342085283</v>
+        <v>0.164343304967419</v>
       </c>
       <c r="O188" t="n">
         <v>3.489976418106017</v>
@@ -6089,25 +6089,25 @@
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.09699086384231925</v>
+        <v>0.08934480846017347</v>
       </c>
       <c r="G189" t="n">
         <v>3.51835021012314</v>
       </c>
       <c r="J189" t="n">
-        <v>0.09699086384231925</v>
+        <v>0.08934480846017347</v>
       </c>
       <c r="K189" t="n">
         <v>3.51835021012314</v>
       </c>
       <c r="L189" t="n">
-        <v>0.1058802039157063</v>
+        <v>0.121286234442466</v>
       </c>
       <c r="M189" t="n">
         <v>3.51835021012314</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1685150826551754</v>
+        <v>0.1622993014743773</v>
       </c>
       <c r="O189" t="n">
         <v>3.51835021012314</v>
@@ -6115,25 +6115,25 @@
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.09526627490871102</v>
+        <v>0.08812822477265739</v>
       </c>
       <c r="G190" t="n">
         <v>3.546724002140262</v>
       </c>
       <c r="J190" t="n">
-        <v>0.09526627490871102</v>
+        <v>0.08812822477265739</v>
       </c>
       <c r="K190" t="n">
         <v>3.546724002140262</v>
       </c>
       <c r="L190" t="n">
-        <v>0.1063920370210178</v>
+        <v>0.1204600078774716</v>
       </c>
       <c r="M190" t="n">
         <v>3.546724002140262</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1693283305868501</v>
+        <v>0.1604025280762249</v>
       </c>
       <c r="O190" t="n">
         <v>3.546724002140262</v>
@@ -6141,25 +6141,25 @@
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.09497989822581589</v>
+        <v>0.08702885839314005</v>
       </c>
       <c r="G191" t="n">
         <v>3.575097794157384</v>
       </c>
       <c r="J191" t="n">
-        <v>0.09497989822581589</v>
+        <v>0.08702885839314005</v>
       </c>
       <c r="K191" t="n">
         <v>3.575097794157384</v>
       </c>
       <c r="L191" t="n">
-        <v>0.105092875995938</v>
+        <v>0.1195922436293561</v>
       </c>
       <c r="M191" t="n">
         <v>3.575097794157384</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1683614786120779</v>
+        <v>0.1621033904752909</v>
       </c>
       <c r="O191" t="n">
         <v>3.575097794157384</v>
@@ -6167,25 +6167,25 @@
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.0938803771178959</v>
+        <v>0.08716113603399311</v>
       </c>
       <c r="G192" t="n">
         <v>3.603471586174506</v>
       </c>
       <c r="J192" t="n">
-        <v>0.0938803771178959</v>
+        <v>0.08716113603399311</v>
       </c>
       <c r="K192" t="n">
         <v>3.603471586174506</v>
       </c>
       <c r="L192" t="n">
-        <v>0.1047235609040899</v>
+        <v>0.1184343724367094</v>
       </c>
       <c r="M192" t="n">
         <v>3.603471586174506</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1664168945322094</v>
+        <v>0.1599355925057094</v>
       </c>
       <c r="O192" t="n">
         <v>3.603471586174506</v>
@@ -6193,25 +6193,25 @@
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.09494019882666629</v>
+        <v>0.08681453881479347</v>
       </c>
       <c r="G193" t="n">
         <v>3.631845378191628</v>
       </c>
       <c r="J193" t="n">
-        <v>0.09494019882666629</v>
+        <v>0.08681453881479347</v>
       </c>
       <c r="K193" t="n">
         <v>3.631845378191628</v>
       </c>
       <c r="L193" t="n">
-        <v>0.1042334172948384</v>
+        <v>0.1181669885865369</v>
       </c>
       <c r="M193" t="n">
         <v>3.631845378191628</v>
       </c>
       <c r="N193" t="n">
-        <v>0.167550720530834</v>
+        <v>0.1593622261776516</v>
       </c>
       <c r="O193" t="n">
         <v>3.631845378191628</v>
@@ -6219,25 +6219,25 @@
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.09312340901595421</v>
+        <v>0.08530156706574642</v>
       </c>
       <c r="G194" t="n">
         <v>3.66021917020875</v>
       </c>
       <c r="J194" t="n">
-        <v>0.09312340901595421</v>
+        <v>0.08530156706574642</v>
       </c>
       <c r="K194" t="n">
         <v>3.66021917020875</v>
       </c>
       <c r="L194" t="n">
-        <v>0.1019186699700174</v>
+        <v>0.1182681072673692</v>
       </c>
       <c r="M194" t="n">
         <v>3.66021917020875</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1663756836980766</v>
+        <v>0.1574405757470715</v>
       </c>
       <c r="O194" t="n">
         <v>3.66021917020875</v>
@@ -6245,25 +6245,25 @@
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.09289222881121993</v>
+        <v>0.08588654783638554</v>
       </c>
       <c r="G195" t="n">
         <v>3.688592962225872</v>
       </c>
       <c r="J195" t="n">
-        <v>0.09289222881121993</v>
+        <v>0.08588654783638554</v>
       </c>
       <c r="K195" t="n">
         <v>3.688592962225872</v>
       </c>
       <c r="L195" t="n">
-        <v>0.1023825740903689</v>
+        <v>0.1166943134517521</v>
       </c>
       <c r="M195" t="n">
         <v>3.688592962225872</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1644783797759789</v>
+        <v>0.1556381373637543</v>
       </c>
       <c r="O195" t="n">
         <v>3.688592962225872</v>
@@ -6271,25 +6271,25 @@
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.09172320200000705</v>
+        <v>0.08519941277767483</v>
       </c>
       <c r="G196" t="n">
         <v>3.716966754242994</v>
       </c>
       <c r="J196" t="n">
-        <v>0.09172320200000705</v>
+        <v>0.08519941277767483</v>
       </c>
       <c r="K196" t="n">
         <v>3.716966754242994</v>
       </c>
       <c r="L196" t="n">
-        <v>0.1025277234609834</v>
+        <v>0.1162944598029167</v>
       </c>
       <c r="M196" t="n">
         <v>3.716966754242994</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1633902557824717</v>
+        <v>0.1560550631036147</v>
       </c>
       <c r="O196" t="n">
         <v>3.716966754242994</v>
@@ -6297,25 +6297,25 @@
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.09224259633353606</v>
+        <v>0.08370423745925674</v>
       </c>
       <c r="G197" t="n">
         <v>3.745340546260116</v>
       </c>
       <c r="J197" t="n">
-        <v>0.09224259633353606</v>
+        <v>0.08370423745925674</v>
       </c>
       <c r="K197" t="n">
         <v>3.745340546260116</v>
       </c>
       <c r="L197" t="n">
-        <v>0.1006559215515264</v>
+        <v>0.1147814305783343</v>
       </c>
       <c r="M197" t="n">
         <v>3.745340546260116</v>
       </c>
       <c r="N197" t="n">
-        <v>0.16092762735937</v>
+        <v>0.1551570501020166</v>
       </c>
       <c r="O197" t="n">
         <v>3.745340546260116</v>
@@ -6323,25 +6323,25 @@
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.09101658354076586</v>
+        <v>0.08333061249349817</v>
       </c>
       <c r="G198" t="n">
         <v>3.773714338277239</v>
       </c>
       <c r="J198" t="n">
-        <v>0.09101658354076586</v>
+        <v>0.08333061249349817</v>
       </c>
       <c r="K198" t="n">
         <v>3.773714338277239</v>
       </c>
       <c r="L198" t="n">
-        <v>0.1004159371743636</v>
+        <v>0.1159001841639012</v>
       </c>
       <c r="M198" t="n">
         <v>3.773714338277239</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1601763786293365</v>
+        <v>0.1527556976950613</v>
       </c>
       <c r="O198" t="n">
         <v>3.773714338277239</v>
@@ -6349,25 +6349,25 @@
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.09107981327406972</v>
+        <v>0.08396651647393899</v>
       </c>
       <c r="G199" t="n">
         <v>3.802088130294361</v>
       </c>
       <c r="J199" t="n">
-        <v>0.09107981327406972</v>
+        <v>0.08396651647393899</v>
       </c>
       <c r="K199" t="n">
         <v>3.802088130294361</v>
       </c>
       <c r="L199" t="n">
-        <v>0.09912815068065441</v>
+        <v>0.1150584305061917</v>
       </c>
       <c r="M199" t="n">
         <v>3.802088130294361</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1614577033998265</v>
+        <v>0.1537049029179273</v>
       </c>
       <c r="O199" t="n">
         <v>3.802088130294361</v>
@@ -6375,25 +6375,25 @@
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.0896887988388884</v>
+        <v>0.08269413069503491</v>
       </c>
       <c r="G200" t="n">
         <v>3.830461922311483</v>
       </c>
       <c r="J200" t="n">
-        <v>0.0896887988388884</v>
+        <v>0.08269413069503491</v>
       </c>
       <c r="K200" t="n">
         <v>3.830461922311483</v>
       </c>
       <c r="L200" t="n">
-        <v>0.09850634968014123</v>
+        <v>0.1131228661244086</v>
       </c>
       <c r="M200" t="n">
         <v>3.830461922311483</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1584585998359569</v>
+        <v>0.1518154280755006</v>
       </c>
       <c r="O200" t="n">
         <v>3.830461922311483</v>
@@ -6401,25 +6401,25 @@
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.08907391905195033</v>
+        <v>0.08272821488519647</v>
       </c>
       <c r="G201" t="n">
         <v>3.858835714328605</v>
       </c>
       <c r="J201" t="n">
-        <v>0.08907391905195033</v>
+        <v>0.08272821488519647</v>
       </c>
       <c r="K201" t="n">
         <v>3.858835714328605</v>
       </c>
       <c r="L201" t="n">
-        <v>0.09759494433528189</v>
+        <v>0.1127080800707534</v>
       </c>
       <c r="M201" t="n">
         <v>3.858835714328605</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1566935000084767</v>
+        <v>0.1498105421389864</v>
       </c>
       <c r="O201" t="n">
         <v>3.858835714328605</v>
@@ -6427,25 +6427,25 @@
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.08856355493046059</v>
+        <v>0.08209831946940087</v>
       </c>
       <c r="G202" t="n">
         <v>3.887209506345727</v>
       </c>
       <c r="J202" t="n">
-        <v>0.08856355493046059</v>
+        <v>0.08209831946940087</v>
       </c>
       <c r="K202" t="n">
         <v>3.887209506345727</v>
       </c>
       <c r="L202" t="n">
-        <v>0.09849210855736815</v>
+        <v>0.1114012134635158</v>
       </c>
       <c r="M202" t="n">
         <v>3.887209506345727</v>
       </c>
       <c r="N202" t="n">
-        <v>0.15645485221409</v>
+        <v>0.1494913709445188</v>
       </c>
       <c r="O202" t="n">
         <v>3.887209506345727</v>
@@ -6453,25 +6453,25 @@
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.08758250083630828</v>
+        <v>0.08138701432565404</v>
       </c>
       <c r="G203" t="n">
         <v>3.915583298362849</v>
       </c>
       <c r="J203" t="n">
-        <v>0.08758250083630828</v>
+        <v>0.08138701432565404</v>
       </c>
       <c r="K203" t="n">
         <v>3.915583298362849</v>
       </c>
       <c r="L203" t="n">
-        <v>0.09659087346019934</v>
+        <v>0.1114241171981922</v>
       </c>
       <c r="M203" t="n">
         <v>3.915583298362849</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1560478726753351</v>
+        <v>0.1494739640162102</v>
       </c>
       <c r="O203" t="n">
         <v>3.915583298362849</v>
@@ -6479,25 +6479,25 @@
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.08701014367907499</v>
+        <v>0.08042728896763332</v>
       </c>
       <c r="G204" t="n">
         <v>3.943957090379971</v>
       </c>
       <c r="J204" t="n">
-        <v>0.08701014367907499</v>
+        <v>0.08042728896763332</v>
       </c>
       <c r="K204" t="n">
         <v>3.943957090379971</v>
       </c>
       <c r="L204" t="n">
-        <v>0.09590184235336301</v>
+        <v>0.1101322482458196</v>
       </c>
       <c r="M204" t="n">
         <v>3.943957090379971</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1537737013546236</v>
+        <v>0.1472851534401131</v>
       </c>
       <c r="O204" t="n">
         <v>3.943957090379971</v>
@@ -6505,25 +6505,25 @@
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.08746847726133065</v>
+        <v>0.08033265157131773</v>
       </c>
       <c r="G205" t="n">
         <v>3.972330882397093</v>
       </c>
       <c r="J205" t="n">
-        <v>0.08746847726133065</v>
+        <v>0.08033265157131773</v>
       </c>
       <c r="K205" t="n">
         <v>3.972330882397093</v>
       </c>
       <c r="L205" t="n">
-        <v>0.09563649616919499</v>
+        <v>0.1089913873747421</v>
       </c>
       <c r="M205" t="n">
         <v>3.972330882397093</v>
       </c>
       <c r="N205" t="n">
-        <v>0.153779912869705</v>
+        <v>0.1458918174811734</v>
       </c>
       <c r="O205" t="n">
         <v>3.972330882397093</v>
@@ -6531,25 +6531,25 @@
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.0865804194525379</v>
+        <v>0.08029049536687589</v>
       </c>
       <c r="G206" t="n">
         <v>4.000704674414215</v>
       </c>
       <c r="J206" t="n">
-        <v>0.0865804194525379</v>
+        <v>0.08029049536687589</v>
       </c>
       <c r="K206" t="n">
         <v>4.000704674414215</v>
       </c>
       <c r="L206" t="n">
-        <v>0.09624601225406935</v>
+        <v>0.1087103393250759</v>
       </c>
       <c r="M206" t="n">
         <v>4.000704674414215</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1539150793118415</v>
+        <v>0.1465083266718843</v>
       </c>
       <c r="O206" t="n">
         <v>4.000704674414215</v>
@@ -6557,25 +6557,25 @@
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.08700145111159759</v>
+        <v>0.0794524680345267</v>
       </c>
       <c r="G207" t="n">
         <v>4.029078466431337</v>
       </c>
       <c r="J207" t="n">
-        <v>0.08700145111159759</v>
+        <v>0.0794524680345267</v>
       </c>
       <c r="K207" t="n">
         <v>4.029078466431337</v>
       </c>
       <c r="L207" t="n">
-        <v>0.09451319979563874</v>
+        <v>0.1091991077903018</v>
       </c>
       <c r="M207" t="n">
         <v>4.029078466431337</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1535859879341368</v>
+        <v>0.1465160768923324</v>
       </c>
       <c r="O207" t="n">
         <v>4.029078466431337</v>
@@ -6583,25 +6583,25 @@
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.0848609022095199</v>
+        <v>0.07915843469098012</v>
       </c>
       <c r="G208" t="n">
         <v>4.05745225844846</v>
       </c>
       <c r="J208" t="n">
-        <v>0.0848609022095199</v>
+        <v>0.07915843469098012</v>
       </c>
       <c r="K208" t="n">
         <v>4.05745225844846</v>
       </c>
       <c r="L208" t="n">
-        <v>0.09326000135069576</v>
+        <v>0.1076713874005813</v>
       </c>
       <c r="M208" t="n">
         <v>4.05745225844846</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1519413517429696</v>
+        <v>0.1456828632803683</v>
       </c>
       <c r="O208" t="n">
         <v>4.05745225844846</v>
@@ -6609,25 +6609,25 @@
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.08504529989578262</v>
+        <v>0.07834966205324813</v>
       </c>
       <c r="G209" t="n">
         <v>4.085826050465582</v>
       </c>
       <c r="J209" t="n">
-        <v>0.08504529989578262</v>
+        <v>0.07834966205324813</v>
       </c>
       <c r="K209" t="n">
         <v>4.085826050465582</v>
       </c>
       <c r="L209" t="n">
-        <v>0.09376235964916983</v>
+        <v>0.1084034647790448</v>
       </c>
       <c r="M209" t="n">
         <v>4.085826050465582</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1504195539697642</v>
+        <v>0.1424613519337763</v>
       </c>
       <c r="O209" t="n">
         <v>4.085826050465582</v>
@@ -6635,25 +6635,25 @@
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.08427046684353375</v>
+        <v>0.07806498356786679</v>
       </c>
       <c r="G210" t="n">
         <v>4.114199842482703</v>
       </c>
       <c r="J210" t="n">
-        <v>0.08427046684353375</v>
+        <v>0.07806498356786679</v>
       </c>
       <c r="K210" t="n">
         <v>4.114199842482703</v>
       </c>
       <c r="L210" t="n">
-        <v>0.09225722355607094</v>
+        <v>0.1060435754282014</v>
       </c>
       <c r="M210" t="n">
         <v>4.114199842482703</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1506650595227457</v>
+        <v>0.1430587449639989</v>
       </c>
       <c r="O210" t="n">
         <v>4.114199842482703</v>
@@ -6661,25 +6661,25 @@
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.08434043791905382</v>
+        <v>0.07753715055225885</v>
       </c>
       <c r="G211" t="n">
         <v>4.142573634499826</v>
       </c>
       <c r="J211" t="n">
-        <v>0.08434043791905382</v>
+        <v>0.07753715055225885</v>
       </c>
       <c r="K211" t="n">
         <v>4.142573634499826</v>
       </c>
       <c r="L211" t="n">
-        <v>0.0926787618413704</v>
+        <v>0.1061321630256875</v>
       </c>
       <c r="M211" t="n">
         <v>4.142573634499826</v>
       </c>
       <c r="N211" t="n">
-        <v>0.14735787065885</v>
+        <v>0.1405730853413338</v>
       </c>
       <c r="O211" t="n">
         <v>4.142573634499826</v>
@@ -6687,25 +6687,25 @@
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.08335667286723217</v>
+        <v>0.07703346894335451</v>
       </c>
       <c r="G212" t="n">
         <v>4.170947426516948</v>
       </c>
       <c r="J212" t="n">
-        <v>0.08335667286723217</v>
+        <v>0.07703346894335451</v>
       </c>
       <c r="K212" t="n">
         <v>4.170947426516948</v>
       </c>
       <c r="L212" t="n">
-        <v>0.09183722117195188</v>
+        <v>0.104640282537018</v>
       </c>
       <c r="M212" t="n">
         <v>4.170947426516948</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1473159536944838</v>
+        <v>0.1402229543379974</v>
       </c>
       <c r="O212" t="n">
         <v>4.170947426516948</v>
@@ -6713,25 +6713,25 @@
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.08259632668873448</v>
+        <v>0.07614813303125681</v>
       </c>
       <c r="G213" t="n">
         <v>4.19932121853407</v>
       </c>
       <c r="J213" t="n">
-        <v>0.08259632668873448</v>
+        <v>0.07614813303125681</v>
       </c>
       <c r="K213" t="n">
         <v>4.19932121853407</v>
       </c>
       <c r="L213" t="n">
-        <v>0.091128765241294</v>
+        <v>0.1053650748247449</v>
       </c>
       <c r="M213" t="n">
         <v>4.19932121853407</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1483421457268691</v>
+        <v>0.1391540008722881</v>
       </c>
       <c r="O213" t="n">
         <v>4.19932121853407</v>
@@ -6739,25 +6739,25 @@
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.08331036206026474</v>
+        <v>0.07693380623975637</v>
       </c>
       <c r="G214" t="n">
         <v>4.227695010551192</v>
       </c>
       <c r="J214" t="n">
-        <v>0.08331036206026474</v>
+        <v>0.07693380623975637</v>
       </c>
       <c r="K214" t="n">
         <v>4.227695010551192</v>
       </c>
       <c r="L214" t="n">
-        <v>0.09029730691554637</v>
+        <v>0.1053274534791568</v>
       </c>
       <c r="M214" t="n">
         <v>4.227695010551192</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1456210622377157</v>
+        <v>0.1401324098761103</v>
       </c>
       <c r="O214" t="n">
         <v>4.227695010551192</v>
@@ -6765,25 +6765,25 @@
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.08229055344498844</v>
+        <v>0.07660218783212759</v>
       </c>
       <c r="G215" t="n">
         <v>4.256068802568314</v>
       </c>
       <c r="J215" t="n">
-        <v>0.08229055344498844</v>
+        <v>0.07660218783212759</v>
       </c>
       <c r="K215" t="n">
         <v>4.256068802568314</v>
       </c>
       <c r="L215" t="n">
-        <v>0.09015383390538911</v>
+        <v>0.1032297634920381</v>
       </c>
       <c r="M215" t="n">
         <v>4.256068802568314</v>
       </c>
       <c r="N215" t="n">
-        <v>0.145577026123209</v>
+        <v>0.13781776063961</v>
       </c>
       <c r="O215" t="n">
         <v>4.256068802568314</v>
@@ -6791,25 +6791,25 @@
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.08164272891714226</v>
+        <v>0.07553327938953937</v>
       </c>
       <c r="G216" t="n">
         <v>4.284442594585436</v>
       </c>
       <c r="J216" t="n">
-        <v>0.08164272891714226</v>
+        <v>0.07553327938953937</v>
       </c>
       <c r="K216" t="n">
         <v>4.284442594585436</v>
       </c>
       <c r="L216" t="n">
-        <v>0.09058186270870637</v>
+        <v>0.1041141893271524</v>
       </c>
       <c r="M216" t="n">
         <v>4.284442594585436</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1457525144287387</v>
+        <v>0.1390704794957661</v>
       </c>
       <c r="O216" t="n">
         <v>4.284442594585436</v>
@@ -6817,25 +6817,25 @@
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.08255861676156803</v>
+        <v>0.07530431840896891</v>
       </c>
       <c r="G217" t="n">
         <v>4.312816386602559</v>
       </c>
       <c r="J217" t="n">
-        <v>0.08255861676156803</v>
+        <v>0.07530431840896891</v>
       </c>
       <c r="K217" t="n">
         <v>4.312816386602559</v>
       </c>
       <c r="L217" t="n">
-        <v>0.08950595740844415</v>
+        <v>0.103467754093689</v>
       </c>
       <c r="M217" t="n">
         <v>4.312816386602559</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1458585797107029</v>
+        <v>0.1383308302362388</v>
       </c>
       <c r="O217" t="n">
         <v>4.312816386602559</v>
@@ -6843,25 +6843,25 @@
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.08207780378677806</v>
+        <v>0.07443704518134595</v>
       </c>
       <c r="G218" t="n">
         <v>4.34119017861968</v>
       </c>
       <c r="J218" t="n">
-        <v>0.08207780378677806</v>
+        <v>0.07443704518134595</v>
       </c>
       <c r="K218" t="n">
         <v>4.34119017861968</v>
       </c>
       <c r="L218" t="n">
-        <v>0.09005804152069836</v>
+        <v>0.1020734013214813</v>
       </c>
       <c r="M218" t="n">
         <v>4.34119017861968</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1437290306550144</v>
+        <v>0.138032106984589</v>
       </c>
       <c r="O218" t="n">
         <v>4.34119017861968</v>
@@ -6869,25 +6869,25 @@
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.08134890313748856</v>
+        <v>0.07463006086670995</v>
       </c>
       <c r="G219" t="n">
         <v>4.369563970636802</v>
       </c>
       <c r="J219" t="n">
-        <v>0.08134890313748856</v>
+        <v>0.07463006086670995</v>
       </c>
       <c r="K219" t="n">
         <v>4.369563970636802</v>
       </c>
       <c r="L219" t="n">
-        <v>0.08853451745178786</v>
+        <v>0.1013345554825326</v>
       </c>
       <c r="M219" t="n">
         <v>4.369563970636802</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1441526524336254</v>
+        <v>0.1357795968940099</v>
       </c>
       <c r="O219" t="n">
         <v>4.369563970636802</v>
@@ -6895,25 +6895,25 @@
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.08022886806839613</v>
+        <v>0.07515584467998129</v>
       </c>
       <c r="G220" t="n">
         <v>4.397937762653925</v>
       </c>
       <c r="J220" t="n">
-        <v>0.08022886806839613</v>
+        <v>0.07515584467998129</v>
       </c>
       <c r="K220" t="n">
         <v>4.397937762653925</v>
       </c>
       <c r="L220" t="n">
-        <v>0.08964537567140457</v>
+        <v>0.1011103473723742</v>
       </c>
       <c r="M220" t="n">
         <v>4.397937762653925</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1422027449784224</v>
+        <v>0.1362551565567705</v>
       </c>
       <c r="O220" t="n">
         <v>4.397937762653925</v>
@@ -6921,25 +6921,25 @@
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.0805837789227641</v>
+        <v>0.07431324946484466</v>
       </c>
       <c r="G221" t="n">
         <v>4.426311554671047</v>
       </c>
       <c r="J221" t="n">
-        <v>0.0805837789227641</v>
+        <v>0.07431324946484466</v>
       </c>
       <c r="K221" t="n">
         <v>4.426311554671047</v>
       </c>
       <c r="L221" t="n">
-        <v>0.08936536154875498</v>
+        <v>0.1010395037478037</v>
       </c>
       <c r="M221" t="n">
         <v>4.426311554671047</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1423855067536839</v>
+        <v>0.1344601532501235</v>
       </c>
       <c r="O221" t="n">
         <v>4.426311554671047</v>
@@ -6947,25 +6947,25 @@
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.08030942109078289</v>
+        <v>0.07391987390556977</v>
       </c>
       <c r="G222" t="n">
         <v>4.454685346688168</v>
       </c>
       <c r="J222" t="n">
-        <v>0.08030942109078289</v>
+        <v>0.07391987390556977</v>
       </c>
       <c r="K222" t="n">
         <v>4.454685346688168</v>
       </c>
       <c r="L222" t="n">
-        <v>0.08816102192195355</v>
+        <v>0.1003218105808192</v>
       </c>
       <c r="M222" t="n">
         <v>4.454685346688168</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1419289160938753</v>
+        <v>0.1363545099799575</v>
       </c>
       <c r="O222" t="n">
         <v>4.454685346688168</v>
@@ -6973,25 +6973,25 @@
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.07941338406092251</v>
+        <v>0.07294845347060701</v>
       </c>
       <c r="G223" t="n">
         <v>4.483059138705291</v>
       </c>
       <c r="J223" t="n">
-        <v>0.07941338406092251</v>
+        <v>0.07294845347060701</v>
       </c>
       <c r="K223" t="n">
         <v>4.483059138705291</v>
       </c>
       <c r="L223" t="n">
-        <v>0.08801120779936525</v>
+        <v>0.1013710155658749</v>
       </c>
       <c r="M223" t="n">
         <v>4.483059138705291</v>
       </c>
       <c r="N223" t="n">
-        <v>0.141334267135811</v>
+        <v>0.1344239419245085</v>
       </c>
       <c r="O223" t="n">
         <v>4.483059138705291</v>
@@ -6999,25 +6999,25 @@
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.07962283596898713</v>
+        <v>0.07321471597738401</v>
       </c>
       <c r="G224" t="n">
         <v>4.511432930722413</v>
       </c>
       <c r="J224" t="n">
-        <v>0.07962283596898713</v>
+        <v>0.07321471597738401</v>
       </c>
       <c r="K224" t="n">
         <v>4.511432930722413</v>
       </c>
       <c r="L224" t="n">
-        <v>0.08669854635145646</v>
+        <v>0.1009576076663593</v>
       </c>
       <c r="M224" t="n">
         <v>4.511432930722413</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1391707451097617</v>
+        <v>0.1341303484844559</v>
       </c>
       <c r="O224" t="n">
         <v>4.511432930722413</v>
@@ -7025,25 +7025,25 @@
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.07971934754097751</v>
+        <v>0.07237725021074318</v>
       </c>
       <c r="G225" t="n">
         <v>4.539806722739535</v>
       </c>
       <c r="J225" t="n">
-        <v>0.07971934754097751</v>
+        <v>0.07237725021074318</v>
       </c>
       <c r="K225" t="n">
         <v>4.539806722739535</v>
       </c>
       <c r="L225" t="n">
-        <v>0.08650278630822499</v>
+        <v>0.1001776359255517</v>
       </c>
       <c r="M225" t="n">
         <v>4.539806722739535</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1393181486592948</v>
+        <v>0.1328638641136021</v>
       </c>
       <c r="O225" t="n">
         <v>4.539806722739535</v>
@@ -7051,25 +7051,25 @@
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.07913562477611717</v>
+        <v>0.07275222511953162</v>
       </c>
       <c r="G226" t="n">
         <v>4.568180514756657</v>
       </c>
       <c r="J226" t="n">
-        <v>0.07913562477611717</v>
+        <v>0.07275222511953162</v>
       </c>
       <c r="K226" t="n">
         <v>4.568180514756657</v>
       </c>
       <c r="L226" t="n">
-        <v>0.08616079597266062</v>
+        <v>0.09978158182384743</v>
       </c>
       <c r="M226" t="n">
         <v>4.568180514756657</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1391853677509221</v>
+        <v>0.1338681258434691</v>
       </c>
       <c r="O226" t="n">
         <v>4.568180514756657</v>
@@ -7077,25 +7077,25 @@
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.0794375250717093</v>
+        <v>0.07210379152287472</v>
       </c>
       <c r="G227" t="n">
         <v>4.596554306773779</v>
       </c>
       <c r="J227" t="n">
-        <v>0.0794375250717093</v>
+        <v>0.07210379152287472</v>
       </c>
       <c r="K227" t="n">
         <v>4.596554306773779</v>
       </c>
       <c r="L227" t="n">
-        <v>0.08673784839164883</v>
+        <v>0.09914078251450782</v>
       </c>
       <c r="M227" t="n">
         <v>4.596554306773779</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1375405993377188</v>
+        <v>0.1327048415249357</v>
       </c>
       <c r="O227" t="n">
         <v>4.596554306773779</v>
@@ -7103,25 +7103,25 @@
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.07791891250141239</v>
+        <v>0.0713594793216227</v>
       </c>
       <c r="G228" t="n">
         <v>4.624928098790901</v>
       </c>
       <c r="J228" t="n">
-        <v>0.07791891250141239</v>
+        <v>0.0713594793216227</v>
       </c>
       <c r="K228" t="n">
         <v>4.624928098790901</v>
       </c>
       <c r="L228" t="n">
-        <v>0.08545868527262149</v>
+        <v>0.09898852918329683</v>
       </c>
       <c r="M228" t="n">
         <v>4.624928098790901</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1378993619603797</v>
+        <v>0.1308248070613351</v>
       </c>
       <c r="O228" t="n">
         <v>4.624928098790901</v>
@@ -7129,25 +7129,25 @@
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.0775908753097225</v>
+        <v>0.07113794240958657</v>
       </c>
       <c r="G229" t="n">
         <v>4.653301890808024</v>
       </c>
       <c r="J229" t="n">
-        <v>0.0775908753097225</v>
+        <v>0.07113794240958657</v>
       </c>
       <c r="K229" t="n">
         <v>4.653301890808024</v>
       </c>
       <c r="L229" t="n">
-        <v>0.0849873333341664</v>
+        <v>0.09874899925825421</v>
       </c>
       <c r="M229" t="n">
         <v>4.653301890808024</v>
       </c>
       <c r="N229" t="n">
-        <v>0.137814677380952</v>
+        <v>0.1311414509052382</v>
       </c>
       <c r="O229" t="n">
         <v>4.653301890808024</v>
@@ -7155,25 +7155,25 @@
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.0775687135650845</v>
+        <v>0.07197668014889146</v>
       </c>
       <c r="G230" t="n">
         <v>4.681675682825145</v>
       </c>
       <c r="J230" t="n">
-        <v>0.0775687135650845</v>
+        <v>0.07197668014889146</v>
       </c>
       <c r="K230" t="n">
         <v>4.681675682825145</v>
       </c>
       <c r="L230" t="n">
-        <v>0.0850153509689348</v>
+        <v>0.09801201841321724</v>
       </c>
       <c r="M230" t="n">
         <v>4.681675682825145</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1377582193378452</v>
+        <v>0.1319402043158007</v>
       </c>
       <c r="O230" t="n">
         <v>4.681675682825145</v>
@@ -7181,25 +7181,25 @@
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.07768628505214172</v>
+        <v>0.0715124483587095</v>
       </c>
       <c r="G231" t="n">
         <v>4.710049474842267</v>
       </c>
       <c r="J231" t="n">
-        <v>0.07768628505214172</v>
+        <v>0.0715124483587095</v>
       </c>
       <c r="K231" t="n">
         <v>4.710049474842267</v>
       </c>
       <c r="L231" t="n">
-        <v>0.08451556602576947</v>
+        <v>0.09754430443313124</v>
       </c>
       <c r="M231" t="n">
         <v>4.710049474842267</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1377297827349167</v>
+        <v>0.1297202034474656</v>
       </c>
       <c r="O231" t="n">
         <v>4.710049474842267</v>
@@ -7207,25 +7207,25 @@
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.0772785095121646</v>
+        <v>0.07092425803649904</v>
       </c>
       <c r="G232" t="n">
         <v>4.73842326685939</v>
       </c>
       <c r="J232" t="n">
-        <v>0.0772785095121646</v>
+        <v>0.07092425803649904</v>
       </c>
       <c r="K232" t="n">
         <v>4.73842326685939</v>
       </c>
       <c r="L232" t="n">
-        <v>0.08502889188035012</v>
+        <v>0.09753716040202413</v>
       </c>
       <c r="M232" t="n">
         <v>4.73842326685939</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1348708699961848</v>
+        <v>0.1296484082535078</v>
       </c>
       <c r="O232" t="n">
         <v>4.73842326685939</v>
@@ -7233,25 +7233,25 @@
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.07755050968718755</v>
+        <v>0.0702418769387485</v>
       </c>
       <c r="G233" t="n">
         <v>4.766797058876512</v>
       </c>
       <c r="J233" t="n">
-        <v>0.07755050968718755</v>
+        <v>0.0702418769387485</v>
       </c>
       <c r="K233" t="n">
         <v>4.766797058876512</v>
       </c>
       <c r="L233" t="n">
-        <v>0.08513315101635449</v>
+        <v>0.09629145786767436</v>
       </c>
       <c r="M233" t="n">
         <v>4.766797058876512</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1363054064295899</v>
+        <v>0.1306777330003934</v>
       </c>
       <c r="O233" t="n">
         <v>4.766797058876512</v>
@@ -7259,25 +7259,25 @@
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.07720061144621231</v>
+        <v>0.06996645646536183</v>
       </c>
       <c r="G234" t="n">
         <v>4.795170850893633</v>
       </c>
       <c r="J234" t="n">
-        <v>0.07720061144621231</v>
+        <v>0.06996645646536183</v>
       </c>
       <c r="K234" t="n">
         <v>4.795170850893633</v>
       </c>
       <c r="L234" t="n">
-        <v>0.08411790303495</v>
+        <v>0.09734099727413092</v>
       </c>
       <c r="M234" t="n">
         <v>4.795170850893633</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1358386423301003</v>
+        <v>0.1287344516005042</v>
       </c>
       <c r="O234" t="n">
         <v>4.795170850893633</v>
@@ -7285,25 +7285,25 @@
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.07653345419085447</v>
+        <v>0.06967949007890357</v>
       </c>
       <c r="G235" t="n">
         <v>4.823544642910756</v>
       </c>
       <c r="J235" t="n">
-        <v>0.07653345419085447</v>
+        <v>0.06967949007890357</v>
       </c>
       <c r="K235" t="n">
         <v>4.823544642910756</v>
       </c>
       <c r="L235" t="n">
-        <v>0.0834880522559789</v>
+        <v>0.0957991227905359</v>
       </c>
       <c r="M235" t="n">
         <v>4.823544642910756</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1349590648854228</v>
+        <v>0.1272048279852455</v>
       </c>
       <c r="O235" t="n">
         <v>4.823544642910756</v>
@@ -7311,25 +7311,25 @@
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.07533994477216463</v>
+        <v>0.06991234710621275</v>
       </c>
       <c r="G236" t="n">
         <v>4.851918434927878</v>
       </c>
       <c r="J236" t="n">
-        <v>0.07533994477216463</v>
+        <v>0.06991234710621275</v>
       </c>
       <c r="K236" t="n">
         <v>4.851918434927878</v>
       </c>
       <c r="L236" t="n">
-        <v>0.08398250061353668</v>
+        <v>0.09590593254496696</v>
       </c>
       <c r="M236" t="n">
         <v>4.851918434927878</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1342344770749036</v>
+        <v>0.1288096478111041</v>
       </c>
       <c r="O236" t="n">
         <v>4.851918434927878</v>
@@ -7337,25 +7337,25 @@
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.07545802631476352</v>
+        <v>0.07027627284620182</v>
       </c>
       <c r="G237" t="n">
         <v>4.880292226945</v>
       </c>
       <c r="J237" t="n">
-        <v>0.07545802631476352</v>
+        <v>0.07027627284620182</v>
       </c>
       <c r="K237" t="n">
         <v>4.880292226945</v>
       </c>
       <c r="L237" t="n">
-        <v>0.08294311531193893</v>
+        <v>0.0951069704738841</v>
       </c>
       <c r="M237" t="n">
         <v>4.880292226945</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1344511522243864</v>
+        <v>0.127012620483227</v>
       </c>
       <c r="O237" t="n">
         <v>4.880292226945</v>
@@ -7363,25 +7363,25 @@
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.07467839935755735</v>
+        <v>0.0690842180012619</v>
       </c>
       <c r="G238" t="n">
         <v>4.908666018962122</v>
       </c>
       <c r="J238" t="n">
-        <v>0.07467839935755735</v>
+        <v>0.0690842180012619</v>
       </c>
       <c r="K238" t="n">
         <v>4.908666018962122</v>
       </c>
       <c r="L238" t="n">
-        <v>0.0829399465743301</v>
+        <v>0.09531208077654986</v>
       </c>
       <c r="M238" t="n">
         <v>4.908666018962122</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1334832586558022</v>
+        <v>0.1269445532278199</v>
       </c>
       <c r="O238" t="n">
         <v>4.908666018962122</v>
@@ -7389,25 +7389,25 @@
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.07498725991875237</v>
+        <v>0.06885541629068433</v>
       </c>
       <c r="G239" t="n">
         <v>4.937039810979244</v>
       </c>
       <c r="J239" t="n">
-        <v>0.07498725991875237</v>
+        <v>0.06885541629068433</v>
       </c>
       <c r="K239" t="n">
         <v>4.937039810979244</v>
       </c>
       <c r="L239" t="n">
-        <v>0.08216965095315019</v>
+        <v>0.0953462457110585</v>
       </c>
       <c r="M239" t="n">
         <v>4.937039810979244</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1319936305223074</v>
+        <v>0.1258280527927217</v>
       </c>
       <c r="O239" t="n">
         <v>4.937039810979244</v>
@@ -7415,25 +7415,25 @@
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.07412680744318832</v>
+        <v>0.06884248540405209</v>
       </c>
       <c r="G240" t="n">
         <v>4.965413602996366</v>
       </c>
       <c r="J240" t="n">
-        <v>0.07412680744318832</v>
+        <v>0.06884248540405209</v>
       </c>
       <c r="K240" t="n">
         <v>4.965413602996366</v>
       </c>
       <c r="L240" t="n">
-        <v>0.08222038229575147</v>
+        <v>0.09478721213282115</v>
       </c>
       <c r="M240" t="n">
         <v>4.965413602996366</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1316917452055342</v>
+        <v>0.1263598719594812</v>
       </c>
       <c r="O240" t="n">
         <v>4.965413602996366</v>
@@ -7441,25 +7441,25 @@
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.07469812434474081</v>
+        <v>0.06828847503053764</v>
       </c>
       <c r="G241" t="n">
         <v>4.993787395013489</v>
       </c>
       <c r="J241" t="n">
-        <v>0.07469812434474081</v>
+        <v>0.06828847503053764</v>
       </c>
       <c r="K241" t="n">
         <v>4.993787395013489</v>
       </c>
       <c r="L241" t="n">
-        <v>0.08193562360242068</v>
+        <v>0.09411126587422564</v>
       </c>
       <c r="M241" t="n">
         <v>4.993787395013489</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1312883384797046</v>
+        <v>0.1261482390819267</v>
       </c>
       <c r="O241" t="n">
         <v>4.993787395013489</v>
@@ -7467,25 +7467,25 @@
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.07435957957469987</v>
+        <v>0.06870999893224285</v>
       </c>
       <c r="G242" t="n">
         <v>5.02216118703061</v>
       </c>
       <c r="J242" t="n">
-        <v>0.07435957957469987</v>
+        <v>0.06870999893224285</v>
       </c>
       <c r="K242" t="n">
         <v>5.02216118703061</v>
       </c>
       <c r="L242" t="n">
-        <v>0.08237267385267917</v>
+        <v>0.09306706925713892</v>
       </c>
       <c r="M242" t="n">
         <v>5.02216118703061</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1322922925276932</v>
+        <v>0.1239250067819049</v>
       </c>
       <c r="O242" t="n">
         <v>5.02216118703061</v>
@@ -7493,25 +7493,25 @@
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.07467611357016991</v>
+        <v>0.06759017880902496</v>
       </c>
       <c r="G243" t="n">
         <v>5.050534979047733</v>
       </c>
       <c r="J243" t="n">
-        <v>0.07467611357016991</v>
+        <v>0.06759017880902496</v>
       </c>
       <c r="K243" t="n">
         <v>5.050534979047733</v>
       </c>
       <c r="L243" t="n">
-        <v>0.08101743056779631</v>
+        <v>0.09324399417108689</v>
       </c>
       <c r="M243" t="n">
         <v>5.050534979047733</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1297508315111667</v>
+        <v>0.1245873577929116</v>
       </c>
       <c r="O243" t="n">
         <v>5.050534979047733</v>
@@ -7519,25 +7519,25 @@
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.07376670630206185</v>
+        <v>0.0683524383781315</v>
       </c>
       <c r="G244" t="n">
         <v>5.078908771064855</v>
       </c>
       <c r="J244" t="n">
-        <v>0.07376670630206185</v>
+        <v>0.0683524383781315</v>
       </c>
       <c r="K244" t="n">
         <v>5.078908771064855</v>
       </c>
       <c r="L244" t="n">
-        <v>0.08145696161638369</v>
+        <v>0.09256616955620049</v>
       </c>
       <c r="M244" t="n">
         <v>5.078908771064855</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1289606363061069</v>
+        <v>0.1247498328613394</v>
       </c>
       <c r="O244" t="n">
         <v>5.078908771064855</v>
@@ -7545,25 +7545,25 @@
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.07322519176655222</v>
+        <v>0.06779847328619985</v>
       </c>
       <c r="G245" t="n">
         <v>5.107282563081977</v>
       </c>
       <c r="J245" t="n">
-        <v>0.07322519176655222</v>
+        <v>0.06779847328619985</v>
       </c>
       <c r="K245" t="n">
         <v>5.107282563081977</v>
       </c>
       <c r="L245" t="n">
-        <v>0.08103821847020895</v>
+        <v>0.09231129271184366</v>
       </c>
       <c r="M245" t="n">
         <v>5.107282563081977</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1289692588841025</v>
+        <v>0.1247769511515874</v>
       </c>
       <c r="O245" t="n">
         <v>5.107282563081977</v>
@@ -7571,25 +7571,25 @@
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.07349460770064865</v>
+        <v>0.06689243560723035</v>
       </c>
       <c r="G246" t="n">
         <v>5.135656355099099</v>
       </c>
       <c r="J246" t="n">
-        <v>0.07349460770064865</v>
+        <v>0.06689243560723035</v>
       </c>
       <c r="K246" t="n">
         <v>5.135656355099099</v>
       </c>
       <c r="L246" t="n">
-        <v>0.08072847345531232</v>
+        <v>0.09261335967833895</v>
       </c>
       <c r="M246" t="n">
         <v>5.135656355099099</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1291092475546855</v>
+        <v>0.1234490060557767</v>
       </c>
       <c r="O246" t="n">
         <v>5.135656355099099</v>
@@ -7597,25 +7597,25 @@
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.0734203454695373</v>
+        <v>0.06722278014835084</v>
       </c>
       <c r="G247" t="n">
         <v>5.164030147116221</v>
       </c>
       <c r="J247" t="n">
-        <v>0.0734203454695373</v>
+        <v>0.06722278014835084</v>
       </c>
       <c r="K247" t="n">
         <v>5.164030147116221</v>
       </c>
       <c r="L247" t="n">
-        <v>0.08103210484333723</v>
+        <v>0.09233576070256989</v>
       </c>
       <c r="M247" t="n">
         <v>5.164030147116221</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1296111938503165</v>
+        <v>0.1238536396482307</v>
       </c>
       <c r="O247" t="n">
         <v>5.164030147116221</v>
@@ -7623,25 +7623,25 @@
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.0729333261808616</v>
+        <v>0.06756550546365245</v>
       </c>
       <c r="G248" t="n">
         <v>5.192403939133343</v>
       </c>
       <c r="J248" t="n">
-        <v>0.0729333261808616</v>
+        <v>0.06756550546365245</v>
       </c>
       <c r="K248" t="n">
         <v>5.192403939133343</v>
       </c>
       <c r="L248" t="n">
-        <v>0.07963220660578235</v>
+        <v>0.09093491175581932</v>
       </c>
       <c r="M248" t="n">
         <v>5.192403939133343</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1276736648552887</v>
+        <v>0.1225427587205871</v>
       </c>
       <c r="O248" t="n">
         <v>5.192403939133343</v>
@@ -7649,25 +7649,25 @@
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.07208138253919476</v>
+        <v>0.06689360699360254</v>
       </c>
       <c r="G249" t="n">
         <v>5.220777731150466</v>
       </c>
       <c r="J249" t="n">
-        <v>0.07208138253919476</v>
+        <v>0.06689360699360254</v>
       </c>
       <c r="K249" t="n">
         <v>5.220777731150466</v>
       </c>
       <c r="L249" t="n">
-        <v>0.08025144091788999</v>
+        <v>0.0906595074075944</v>
       </c>
       <c r="M249" t="n">
         <v>5.220777731150466</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1269415432582474</v>
+        <v>0.1214265201734581</v>
       </c>
       <c r="O249" t="n">
         <v>5.220777731150466</v>
@@ -7675,25 +7675,25 @@
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.07217611804547316</v>
+        <v>0.06595523883230203</v>
       </c>
       <c r="G250" t="n">
         <v>5.249151523167587</v>
       </c>
       <c r="J250" t="n">
-        <v>0.07217611804547316</v>
+        <v>0.06595523883230203</v>
       </c>
       <c r="K250" t="n">
         <v>5.249151523167587</v>
       </c>
       <c r="L250" t="n">
-        <v>0.08011381286540564</v>
+        <v>0.09183479142576967</v>
       </c>
       <c r="M250" t="n">
         <v>5.249151523167587</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1283840681756813</v>
+        <v>0.1220603962868593</v>
       </c>
       <c r="O250" t="n">
         <v>5.249151523167587</v>
@@ -7701,25 +7701,25 @@
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.07142930243229954</v>
+        <v>0.06609773476637688</v>
       </c>
       <c r="G251" t="n">
         <v>5.277525315184709</v>
       </c>
       <c r="J251" t="n">
-        <v>0.07142930243229954</v>
+        <v>0.06609773476637688</v>
       </c>
       <c r="K251" t="n">
         <v>5.277525315184709</v>
       </c>
       <c r="L251" t="n">
-        <v>0.07872060248063084</v>
+        <v>0.09103621758825348</v>
       </c>
       <c r="M251" t="n">
         <v>5.277525315184709</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1271646807741337</v>
+        <v>0.1210435993485457</v>
       </c>
       <c r="O251" t="n">
         <v>5.277525315184709</v>
@@ -7727,25 +7727,25 @@
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.07213181415993622</v>
+        <v>0.06583815426511856</v>
       </c>
       <c r="G252" t="n">
         <v>5.305899107201832</v>
       </c>
       <c r="J252" t="n">
-        <v>0.07213181415993622</v>
+        <v>0.06583815426511856</v>
       </c>
       <c r="K252" t="n">
         <v>5.305899107201832</v>
       </c>
       <c r="L252" t="n">
-        <v>0.07958655978869479</v>
+        <v>0.09064286286444326</v>
       </c>
       <c r="M252" t="n">
         <v>5.305899107201832</v>
       </c>
       <c r="N252" t="n">
-        <v>0.125386702641732</v>
+        <v>0.1205682560201382</v>
       </c>
       <c r="O252" t="n">
         <v>5.305899107201832</v>
@@ -7753,25 +7753,25 @@
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.07165113245239323</v>
+        <v>0.0653911191400196</v>
       </c>
       <c r="G253" t="n">
         <v>5.334272899218954</v>
       </c>
       <c r="J253" t="n">
-        <v>0.07165113245239323</v>
+        <v>0.0653911191400196</v>
       </c>
       <c r="K253" t="n">
         <v>5.334272899218954</v>
       </c>
       <c r="L253" t="n">
-        <v>0.07830254073004475</v>
+        <v>0.089659766917962</v>
       </c>
       <c r="M253" t="n">
         <v>5.334272899218954</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1253020461440765</v>
+        <v>0.1212675369642042</v>
       </c>
       <c r="O253" t="n">
         <v>5.334272899218954</v>
@@ -7779,25 +7779,25 @@
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.07188137845353029</v>
+        <v>0.0654143726691266</v>
       </c>
       <c r="G254" t="n">
         <v>5.362646691236075</v>
       </c>
       <c r="J254" t="n">
-        <v>0.07188137845353029</v>
+        <v>0.0654143726691266</v>
       </c>
       <c r="K254" t="n">
         <v>5.362646691236075</v>
       </c>
       <c r="L254" t="n">
-        <v>0.07888612500690688</v>
+        <v>0.08965527555234386</v>
       </c>
       <c r="M254" t="n">
         <v>5.362646691236075</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1257495337656562</v>
+        <v>0.1211369540847438</v>
       </c>
       <c r="O254" t="n">
         <v>5.362646691236075</v>
@@ -7805,25 +7805,25 @@
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.0715364043363934</v>
+        <v>0.06497511448725708</v>
       </c>
       <c r="G255" t="n">
         <v>5.391020483253198</v>
       </c>
       <c r="J255" t="n">
-        <v>0.0715364043363934</v>
+        <v>0.06497511448725708</v>
       </c>
       <c r="K255" t="n">
         <v>5.391020483253198</v>
       </c>
       <c r="L255" t="n">
-        <v>0.07831208754343214</v>
+        <v>0.08901774953947264</v>
       </c>
       <c r="M255" t="n">
         <v>5.391020483253198</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1265486482516905</v>
+        <v>0.1189639724201134</v>
       </c>
       <c r="O255" t="n">
         <v>5.391020483253198</v>
@@ -7831,25 +7831,25 @@
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.07135863227022296</v>
+        <v>0.06567441138281659</v>
       </c>
       <c r="G256" t="n">
         <v>5.41939427527032</v>
       </c>
       <c r="J256" t="n">
-        <v>0.07135863227022296</v>
+        <v>0.06567441138281659</v>
       </c>
       <c r="K256" t="n">
         <v>5.41939427527032</v>
       </c>
       <c r="L256" t="n">
-        <v>0.07791525075774018</v>
+        <v>0.08859206118851536</v>
       </c>
       <c r="M256" t="n">
         <v>5.41939427527032</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1260339496851703</v>
+        <v>0.1197788828645822</v>
       </c>
       <c r="O256" t="n">
         <v>5.41939427527032</v>
@@ -7857,25 +7857,25 @@
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.07054141296087103</v>
+        <v>0.06442241019645632</v>
       </c>
       <c r="G257" t="n">
         <v>5.447768067287442</v>
       </c>
       <c r="J257" t="n">
-        <v>0.07054141296087103</v>
+        <v>0.06442241019645632</v>
       </c>
       <c r="K257" t="n">
         <v>5.447768067287442</v>
       </c>
       <c r="L257" t="n">
-        <v>0.07708859037619011</v>
+        <v>0.08852748369811769</v>
       </c>
       <c r="M257" t="n">
         <v>5.447768067287442</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1245669016669543</v>
+        <v>0.1201046268240505</v>
       </c>
       <c r="O257" t="n">
         <v>5.447768067287442</v>
@@ -7883,25 +7883,25 @@
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.07075238106486556</v>
+        <v>0.06489635589275498</v>
       </c>
       <c r="G258" t="n">
         <v>5.476141859304565</v>
       </c>
       <c r="J258" t="n">
-        <v>0.07075238106486556</v>
+        <v>0.06489635589275498</v>
       </c>
       <c r="K258" t="n">
         <v>5.476141859304565</v>
       </c>
       <c r="L258" t="n">
-        <v>0.07677241621725621</v>
+        <v>0.08806704409659263</v>
       </c>
       <c r="M258" t="n">
         <v>5.476141859304565</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1240444028897845</v>
+        <v>0.1188789536619766</v>
       </c>
       <c r="O258" t="n">
         <v>5.476141859304565</v>
@@ -7909,25 +7909,25 @@
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.07083097362788432</v>
+        <v>0.06468512426294104</v>
       </c>
       <c r="G259" t="n">
         <v>5.504515651321686</v>
       </c>
       <c r="J259" t="n">
-        <v>0.07083097362788432</v>
+        <v>0.06468512426294104</v>
       </c>
       <c r="K259" t="n">
         <v>5.504515651321686</v>
       </c>
       <c r="L259" t="n">
-        <v>0.07784917596787666</v>
+        <v>0.08858466817640773</v>
       </c>
       <c r="M259" t="n">
         <v>5.504515651321686</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1246807067822715</v>
+        <v>0.1185156671357177</v>
       </c>
       <c r="O259" t="n">
         <v>5.504515651321686</v>
@@ -7935,25 +7935,25 @@
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.06956783653273031</v>
+        <v>0.06405251470206789</v>
       </c>
       <c r="G260" t="n">
         <v>5.532889443338808</v>
       </c>
       <c r="J260" t="n">
-        <v>0.06956783653273031</v>
+        <v>0.06405251470206789</v>
       </c>
       <c r="K260" t="n">
         <v>5.532889443338808</v>
       </c>
       <c r="L260" t="n">
-        <v>0.07624565700250778</v>
+        <v>0.08752455288631721</v>
       </c>
       <c r="M260" t="n">
         <v>5.532889443338808</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1232556696022587</v>
+        <v>0.1189480890748691</v>
       </c>
       <c r="O260" t="n">
         <v>5.532889443338808</v>
@@ -7961,25 +7961,25 @@
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.06930544146663159</v>
+        <v>0.06394574514292543</v>
       </c>
       <c r="G261" t="n">
         <v>5.561263235355931</v>
       </c>
       <c r="J261" t="n">
-        <v>0.06930544146663159</v>
+        <v>0.06394574514292543</v>
       </c>
       <c r="K261" t="n">
         <v>5.561263235355931</v>
       </c>
       <c r="L261" t="n">
-        <v>0.07720777061966637</v>
+        <v>0.08856514524385374</v>
       </c>
       <c r="M261" t="n">
         <v>5.561263235355931</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1222126943291747</v>
+        <v>0.1176314593455118</v>
       </c>
       <c r="O261" t="n">
         <v>5.561263235355931</v>
@@ -7987,25 +7987,25 @@
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.06979843322969413</v>
+        <v>0.0636051499829938</v>
       </c>
       <c r="G262" t="n">
         <v>5.589637027373053</v>
       </c>
       <c r="J262" t="n">
-        <v>0.06979843322969413</v>
+        <v>0.0636051499829938</v>
       </c>
       <c r="K262" t="n">
         <v>5.589637027373053</v>
       </c>
       <c r="L262" t="n">
-        <v>0.07683669856475685</v>
+        <v>0.08775415181362312</v>
       </c>
       <c r="M262" t="n">
         <v>5.589637027373053</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1239047948642024</v>
+        <v>0.11659625761912</v>
       </c>
       <c r="O262" t="n">
         <v>5.589637027373053</v>
@@ -8013,25 +8013,25 @@
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.06887605378592097</v>
+        <v>0.06363258988434338</v>
       </c>
       <c r="G263" t="n">
         <v>5.618010819390174</v>
       </c>
       <c r="J263" t="n">
-        <v>0.06887605378592097</v>
+        <v>0.06363258988434338</v>
       </c>
       <c r="K263" t="n">
         <v>5.618010819390174</v>
       </c>
       <c r="L263" t="n">
-        <v>0.07612758979637053</v>
+        <v>0.08750151186021682</v>
       </c>
       <c r="M263" t="n">
         <v>5.618010819390174</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1225201432793885</v>
+        <v>0.1178024691975014</v>
       </c>
       <c r="O263" t="n">
         <v>5.618010819390174</v>
@@ -8039,25 +8039,25 @@
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.06860489259509567</v>
+        <v>0.06336329481586689</v>
       </c>
       <c r="G264" t="n">
         <v>5.646384611407297</v>
       </c>
       <c r="J264" t="n">
-        <v>0.06860489259509567</v>
+        <v>0.06336329481586689</v>
       </c>
       <c r="K264" t="n">
         <v>5.646384611407297</v>
       </c>
       <c r="L264" t="n">
-        <v>0.07613243337861207</v>
+        <v>0.08684425142207028</v>
       </c>
       <c r="M264" t="n">
         <v>5.646384611407297</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1220633157055842</v>
+        <v>0.1163739268113523</v>
       </c>
       <c r="O264" t="n">
         <v>5.646384611407297</v>
